--- a/_doc/成績アプリ.xlsx
+++ b/_doc/成績アプリ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\work\django_app\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\work\tennis_app\_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9057002F-CBDB-440F-AB84-1342DD041A15}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6001BAF0-92D3-4990-B815-EC477A7E27F7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3336" yWindow="492" windowWidth="16080" windowHeight="11448" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6936" yWindow="1656" windowWidth="16032" windowHeight="9972" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="要求" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="274">
   <si>
     <t>メニューボタン</t>
     <phoneticPr fontId="1"/>
@@ -1577,6 +1576,59 @@
     <rPh sb="0" eb="1">
       <t>テイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>change</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>import</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>export</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2019前期</t>
+    <rPh sb="4" eb="6">
+      <t>ゼンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>termTitle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番号</t>
+    <rPh sb="0" eb="2">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>params name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>authInput</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>True/False</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2671,7 +2723,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2963,6 +3015,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3017,34 +3081,55 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4203,6 +4288,216 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="吹き出し: 線 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FE9F080-DF5E-4D65-9ADA-412B0505C48E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1775460" y="914400"/>
+          <a:ext cx="312420" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 23438"/>
+            <a:gd name="adj2" fmla="val 113365"/>
+            <a:gd name="adj3" fmla="val 79276"/>
+            <a:gd name="adj4" fmla="val 278579"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: 代替処理 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A46B46F-CCB7-46ED-9359-F27B952F0CFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4221480" y="1051560"/>
+          <a:ext cx="838200" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>INPUT</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 線 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{791BEBD4-389A-440C-A291-1BE9BD402F8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6637020" y="891540"/>
+          <a:ext cx="312420" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 33964"/>
+            <a:gd name="adj2" fmla="val -25659"/>
+            <a:gd name="adj3" fmla="val 89802"/>
+            <a:gd name="adj4" fmla="val -155567"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -4518,21 +4813,21 @@
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
-      <c r="G4" s="111" t="s">
+      <c r="G4" s="115" t="s">
         <v>125</v>
       </c>
       <c r="H4" s="26"/>
-      <c r="I4" s="113" t="s">
+      <c r="I4" s="117" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="113"/>
-      <c r="O4" s="113"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
       <c r="P4" s="26"/>
-      <c r="Q4" s="113" t="s">
+      <c r="Q4" s="117" t="s">
         <v>126</v>
       </c>
       <c r="R4" s="26"/>
@@ -4545,17 +4840,17 @@
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="112"/>
+      <c r="G5" s="116"/>
       <c r="H5" s="29"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
       <c r="P5" s="29"/>
-      <c r="Q5" s="112"/>
+      <c r="Q5" s="116"/>
       <c r="R5" s="29"/>
       <c r="S5" s="29"/>
       <c r="T5" s="30"/>
@@ -4977,11 +5272,11 @@
         <v>178</v>
       </c>
       <c r="E24" s="32"/>
-      <c r="F24" s="114" t="s">
+      <c r="F24" s="118" t="s">
         <v>181</v>
       </c>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
       <c r="I24" s="44" t="s">
         <v>182</v>
       </c>
@@ -5503,10 +5798,10 @@
       <c r="L48" s="48"/>
       <c r="M48" s="48"/>
       <c r="N48" s="49"/>
-      <c r="O48" s="97" t="s">
+      <c r="O48" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="P48" s="98"/>
+      <c r="P48" s="102"/>
       <c r="Q48" s="26"/>
       <c r="R48" s="26"/>
       <c r="S48" s="26"/>
@@ -5546,8 +5841,8 @@
       <c r="L49" s="54"/>
       <c r="M49" s="54"/>
       <c r="N49" s="55"/>
-      <c r="O49" s="99"/>
-      <c r="P49" s="100"/>
+      <c r="O49" s="103"/>
+      <c r="P49" s="104"/>
       <c r="Q49" s="26"/>
       <c r="R49" s="26"/>
       <c r="S49" s="26"/>
@@ -5567,9 +5862,9 @@
       <c r="B50" s="25"/>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
-      <c r="E50" s="103"/>
-      <c r="F50" s="104"/>
-      <c r="G50" s="104"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="108"/>
+      <c r="G50" s="108"/>
       <c r="H50" s="57" t="s">
         <v>145</v>
       </c>
@@ -5585,8 +5880,8 @@
       <c r="L50" s="58"/>
       <c r="M50" s="58"/>
       <c r="N50" s="59"/>
-      <c r="O50" s="101"/>
-      <c r="P50" s="102"/>
+      <c r="O50" s="105"/>
+      <c r="P50" s="106"/>
       <c r="Q50" s="26"/>
       <c r="R50" s="26"/>
       <c r="S50" s="26"/>
@@ -5596,9 +5891,9 @@
       <c r="B51" s="25"/>
       <c r="C51" s="26"/>
       <c r="D51" s="26"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="106"/>
-      <c r="G51" s="106"/>
+      <c r="E51" s="109"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="110"/>
       <c r="H51" s="60"/>
       <c r="I51" s="61"/>
       <c r="J51" s="61"/>
@@ -5606,10 +5901,10 @@
       <c r="L51" s="61"/>
       <c r="M51" s="61"/>
       <c r="N51" s="62"/>
-      <c r="O51" s="107" t="s">
+      <c r="O51" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="P51" s="108"/>
+      <c r="P51" s="112"/>
       <c r="Q51" s="26"/>
       <c r="R51" s="26"/>
       <c r="S51" s="26"/>
@@ -5633,8 +5928,8 @@
       <c r="L52" s="66"/>
       <c r="M52" s="66"/>
       <c r="N52" s="67"/>
-      <c r="O52" s="99"/>
-      <c r="P52" s="100"/>
+      <c r="O52" s="103"/>
+      <c r="P52" s="104"/>
       <c r="Q52" s="26"/>
       <c r="R52" s="26"/>
       <c r="S52" s="26"/>
@@ -5658,8 +5953,8 @@
       <c r="L53" s="71"/>
       <c r="M53" s="71"/>
       <c r="N53" s="72"/>
-      <c r="O53" s="109"/>
-      <c r="P53" s="110"/>
+      <c r="O53" s="113"/>
+      <c r="P53" s="114"/>
       <c r="Q53" s="26"/>
       <c r="R53" s="26"/>
       <c r="S53" s="26"/>
@@ -5834,10 +6129,10 @@
       <c r="N65" s="48"/>
       <c r="O65" s="48"/>
       <c r="P65" s="49"/>
-      <c r="Q65" s="97" t="s">
+      <c r="Q65" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="R65" s="98"/>
+      <c r="R65" s="102"/>
       <c r="T65" s="27"/>
     </row>
     <row r="66" spans="2:34" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
@@ -5861,15 +6156,15 @@
       <c r="N66" s="54"/>
       <c r="O66" s="54"/>
       <c r="P66" s="55"/>
-      <c r="Q66" s="99"/>
-      <c r="R66" s="100"/>
+      <c r="Q66" s="103"/>
+      <c r="R66" s="104"/>
       <c r="T66" s="27"/>
     </row>
     <row r="67" spans="2:34" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="25"/>
-      <c r="D67" s="103"/>
-      <c r="E67" s="104"/>
-      <c r="F67" s="104"/>
+      <c r="D67" s="107"/>
+      <c r="E67" s="108"/>
+      <c r="F67" s="108"/>
       <c r="G67" s="78"/>
       <c r="H67" s="79"/>
       <c r="I67" s="80"/>
@@ -5888,15 +6183,15 @@
       <c r="N67" s="58"/>
       <c r="O67" s="58"/>
       <c r="P67" s="59"/>
-      <c r="Q67" s="101"/>
-      <c r="R67" s="102"/>
+      <c r="Q67" s="105"/>
+      <c r="R67" s="106"/>
       <c r="T67" s="27"/>
     </row>
     <row r="68" spans="2:34" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B68" s="25"/>
-      <c r="D68" s="105"/>
-      <c r="E68" s="106"/>
-      <c r="F68" s="106"/>
+      <c r="D68" s="109"/>
+      <c r="E68" s="110"/>
+      <c r="F68" s="110"/>
       <c r="G68" s="81"/>
       <c r="H68" s="82"/>
       <c r="I68" s="83"/>
@@ -5907,10 +6202,10 @@
       <c r="N68" s="61"/>
       <c r="O68" s="61"/>
       <c r="P68" s="62"/>
-      <c r="Q68" s="107" t="s">
+      <c r="Q68" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="R68" s="108"/>
+      <c r="R68" s="112"/>
       <c r="T68" s="27"/>
     </row>
     <row r="69" spans="2:34" x14ac:dyDescent="0.2">
@@ -5934,8 +6229,8 @@
       <c r="N69" s="66"/>
       <c r="O69" s="66"/>
       <c r="P69" s="67"/>
-      <c r="Q69" s="99"/>
-      <c r="R69" s="100"/>
+      <c r="Q69" s="103"/>
+      <c r="R69" s="104"/>
       <c r="T69" s="27"/>
     </row>
     <row r="70" spans="2:34" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
@@ -5959,8 +6254,8 @@
       <c r="N70" s="71"/>
       <c r="O70" s="71"/>
       <c r="P70" s="72"/>
-      <c r="Q70" s="109"/>
-      <c r="R70" s="110"/>
+      <c r="Q70" s="113"/>
+      <c r="R70" s="114"/>
       <c r="T70" s="27"/>
     </row>
     <row r="71" spans="2:34" ht="11.4" thickTop="1" x14ac:dyDescent="0.2">
@@ -7053,291 +7348,723 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD81015E-FB69-41B6-BE92-6C3EA8E20D8D}">
-  <dimension ref="B1:Y18"/>
+  <dimension ref="J4:AR32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26:AR26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:25" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:25" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="118"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="122"/>
-    </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B3" s="120"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="123"/>
-    </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B4" s="115"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="117"/>
-    </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B5" s="115"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
-      <c r="U5" s="116"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="116"/>
-      <c r="X5" s="116"/>
-      <c r="Y5" s="117"/>
-    </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B6" s="115"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="116"/>
-      <c r="N6" s="116"/>
-      <c r="O6" s="116"/>
-      <c r="P6" s="116"/>
-      <c r="Q6" s="116"/>
-      <c r="R6" s="116"/>
-      <c r="S6" s="116"/>
-      <c r="T6" s="116"/>
-      <c r="U6" s="116"/>
-      <c r="V6" s="116"/>
-      <c r="W6" s="116"/>
-      <c r="X6" s="116"/>
-      <c r="Y6" s="117"/>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B7" s="115"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="116"/>
-      <c r="R7" s="116"/>
-      <c r="S7" s="116"/>
-      <c r="T7" s="116"/>
-      <c r="U7" s="116"/>
-      <c r="V7" s="116"/>
-      <c r="W7" s="116"/>
-      <c r="X7" s="116"/>
-      <c r="Y7" s="117"/>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B8" s="115"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="116"/>
-      <c r="U8" s="116"/>
-      <c r="V8" s="116"/>
-      <c r="W8" s="116"/>
-      <c r="X8" s="116"/>
-      <c r="Y8" s="117"/>
-    </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B9" s="115"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="116"/>
-      <c r="V9" s="116"/>
-      <c r="W9" s="116"/>
-      <c r="X9" s="116"/>
-      <c r="Y9" s="117"/>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+    <row r="4" spans="15:38" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="15:38" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="O5" s="119"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="120"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="120"/>
+      <c r="W5" s="120"/>
+      <c r="X5" s="120"/>
+      <c r="Y5" s="120"/>
+      <c r="Z5" s="120"/>
+      <c r="AA5" s="120"/>
+      <c r="AB5" s="120"/>
+      <c r="AC5" s="120"/>
+      <c r="AD5" s="120"/>
+      <c r="AE5" s="120"/>
+      <c r="AF5" s="120"/>
+      <c r="AG5" s="120"/>
+      <c r="AH5" s="120"/>
+      <c r="AI5" s="120"/>
+      <c r="AJ5" s="120"/>
+      <c r="AK5" s="120"/>
+      <c r="AL5" s="123"/>
+    </row>
+    <row r="6" spans="15:38" x14ac:dyDescent="0.2">
+      <c r="O6" s="121"/>
+      <c r="P6" s="122"/>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="122"/>
+      <c r="S6" s="122"/>
+      <c r="T6" s="122"/>
+      <c r="U6" s="122"/>
+      <c r="V6" s="122"/>
+      <c r="W6" s="122"/>
+      <c r="X6" s="122"/>
+      <c r="Y6" s="122"/>
+      <c r="Z6" s="122"/>
+      <c r="AA6" s="122"/>
+      <c r="AB6" s="122"/>
+      <c r="AC6" s="122"/>
+      <c r="AD6" s="122"/>
+      <c r="AE6" s="122"/>
+      <c r="AF6" s="122"/>
+      <c r="AG6" s="122"/>
+      <c r="AH6" s="122"/>
+      <c r="AI6" s="122"/>
+      <c r="AJ6" s="122"/>
+      <c r="AK6" s="122"/>
+      <c r="AL6" s="124"/>
+    </row>
+    <row r="7" spans="15:38" x14ac:dyDescent="0.2">
+      <c r="O7" s="125" t="s">
+        <v>267</v>
+      </c>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="126"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="126"/>
+      <c r="Z7" s="126"/>
+      <c r="AA7" s="126"/>
+      <c r="AB7" s="126"/>
+      <c r="AC7" s="98"/>
+      <c r="AD7" s="98"/>
+      <c r="AE7" s="98"/>
+      <c r="AF7" s="98"/>
+      <c r="AG7" s="98"/>
+      <c r="AH7" s="98"/>
+      <c r="AI7" s="98"/>
+      <c r="AJ7" s="98"/>
+      <c r="AK7" s="98"/>
+      <c r="AL7" s="99"/>
+    </row>
+    <row r="8" spans="15:38" x14ac:dyDescent="0.2">
+      <c r="O8" s="125"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="126"/>
+      <c r="T8" s="126"/>
+      <c r="U8" s="126"/>
+      <c r="V8" s="126"/>
+      <c r="W8" s="126"/>
+      <c r="X8" s="126"/>
+      <c r="Y8" s="126"/>
+      <c r="Z8" s="126"/>
+      <c r="AA8" s="126"/>
+      <c r="AB8" s="126"/>
+      <c r="AC8" s="98"/>
+      <c r="AD8" s="98"/>
+      <c r="AE8" s="98"/>
+      <c r="AF8" s="98"/>
+      <c r="AG8" s="98"/>
+      <c r="AH8" s="98"/>
+      <c r="AI8" s="98"/>
+      <c r="AJ8" s="98"/>
+      <c r="AK8" s="98"/>
+      <c r="AL8" s="99"/>
+    </row>
+    <row r="9" spans="15:38" x14ac:dyDescent="0.2">
+      <c r="O9" s="97"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="98"/>
+      <c r="AB9" s="98"/>
+      <c r="AC9" s="98"/>
+      <c r="AD9" s="98"/>
+      <c r="AE9" s="98"/>
+      <c r="AF9" s="98"/>
+      <c r="AG9" s="98"/>
+      <c r="AH9" s="98"/>
+      <c r="AI9" s="98"/>
+      <c r="AJ9" s="98"/>
+      <c r="AK9" s="98"/>
+      <c r="AL9" s="99"/>
+    </row>
+    <row r="10" spans="15:38" x14ac:dyDescent="0.2">
+      <c r="O10" s="97"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="98"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="98"/>
+      <c r="AA10" s="98"/>
+      <c r="AB10" s="98"/>
+      <c r="AC10" s="98"/>
+      <c r="AD10" s="98"/>
+      <c r="AE10" s="98"/>
+      <c r="AF10" s="98"/>
+      <c r="AG10" s="98"/>
+      <c r="AH10" s="98"/>
+      <c r="AI10" s="98"/>
+      <c r="AJ10" s="98"/>
+      <c r="AK10" s="98"/>
+      <c r="AL10" s="99"/>
+    </row>
+    <row r="11" spans="15:38" x14ac:dyDescent="0.2">
+      <c r="O11" s="97"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="98"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="98"/>
+      <c r="X11" s="98"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="98"/>
+      <c r="AB11" s="98"/>
+      <c r="AC11" s="98"/>
+      <c r="AD11" s="98"/>
+      <c r="AE11" s="98"/>
+      <c r="AF11" s="98"/>
+      <c r="AG11" s="98"/>
+      <c r="AH11" s="98"/>
+      <c r="AI11" s="98"/>
+      <c r="AJ11" s="98"/>
+      <c r="AK11" s="98"/>
+      <c r="AL11" s="99"/>
+    </row>
+    <row r="12" spans="15:38" x14ac:dyDescent="0.2">
+      <c r="O12" s="97"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="98"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="98"/>
+      <c r="AC12" s="98"/>
+      <c r="AD12" s="98"/>
+      <c r="AE12" s="98"/>
+      <c r="AF12" s="98"/>
+      <c r="AG12" s="98"/>
+      <c r="AH12" s="98"/>
+      <c r="AI12" s="98"/>
+      <c r="AJ12" s="98"/>
+      <c r="AK12" s="98"/>
+      <c r="AL12" s="99"/>
+    </row>
+    <row r="15" spans="15:38" x14ac:dyDescent="0.2">
+      <c r="O15" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B13" s="124" t="s">
+    <row r="16" spans="15:38" x14ac:dyDescent="0.2">
+      <c r="O16" s="100" t="s">
         <v>255</v>
       </c>
-      <c r="C13" t="s">
+      <c r="P16" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B14" s="124" t="s">
+      <c r="AB16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="10:44" x14ac:dyDescent="0.2">
+      <c r="O17" s="100" t="s">
         <v>255</v>
       </c>
-      <c r="C14" t="s">
+      <c r="P17" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B15" s="124" t="s">
+      <c r="AB17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="10:44" x14ac:dyDescent="0.2">
+      <c r="O18" s="100" t="s">
         <v>255</v>
       </c>
-      <c r="C15" t="s">
+      <c r="P18" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B16" s="124" t="s">
+      <c r="AB18" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="10:44" x14ac:dyDescent="0.2">
+      <c r="O19" s="100" t="s">
         <v>255</v>
       </c>
-      <c r="C16" t="s">
+      <c r="P19" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="124" t="s">
+      <c r="AB19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="10:44" x14ac:dyDescent="0.2">
+      <c r="O20" s="100" t="s">
         <v>255</v>
       </c>
-      <c r="C17" t="s">
+      <c r="P20" t="s">
         <v>260</v>
       </c>
-      <c r="O17" t="s">
+      <c r="AB20" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="124" t="s">
+    <row r="21" spans="10:44" x14ac:dyDescent="0.2">
+      <c r="O21" s="100" t="s">
         <v>255</v>
       </c>
-      <c r="C18" t="s">
+      <c r="P21" t="s">
         <v>261</v>
       </c>
-      <c r="O18" t="s">
+      <c r="AB21" t="s">
         <v>262</v>
       </c>
     </row>
+    <row r="23" spans="10:44" x14ac:dyDescent="0.2">
+      <c r="J23" s="127" t="s">
+        <v>269</v>
+      </c>
+      <c r="K23" s="128"/>
+      <c r="L23" s="132" t="s">
+        <v>270</v>
+      </c>
+      <c r="M23" s="131"/>
+      <c r="N23" s="131"/>
+      <c r="O23" s="131"/>
+      <c r="P23" s="131"/>
+      <c r="Q23" s="131"/>
+      <c r="R23" s="131"/>
+      <c r="S23" s="131"/>
+      <c r="T23" s="131"/>
+      <c r="U23" s="133"/>
+      <c r="V23" s="127" t="s">
+        <v>271</v>
+      </c>
+      <c r="W23" s="128"/>
+      <c r="X23" s="128"/>
+      <c r="Y23" s="128"/>
+      <c r="Z23" s="128"/>
+      <c r="AA23" s="128"/>
+      <c r="AB23" s="128"/>
+      <c r="AC23" s="128"/>
+      <c r="AD23" s="128"/>
+      <c r="AE23" s="128"/>
+      <c r="AF23" s="128"/>
+      <c r="AG23" s="128"/>
+      <c r="AH23" s="128"/>
+      <c r="AI23" s="128"/>
+      <c r="AJ23" s="128"/>
+      <c r="AK23" s="128"/>
+      <c r="AL23" s="128"/>
+      <c r="AM23" s="128"/>
+      <c r="AN23" s="128"/>
+      <c r="AO23" s="128"/>
+      <c r="AP23" s="128"/>
+      <c r="AQ23" s="128"/>
+      <c r="AR23" s="134"/>
+    </row>
+    <row r="24" spans="10:44" x14ac:dyDescent="0.2">
+      <c r="J24" s="129">
+        <v>1</v>
+      </c>
+      <c r="K24" s="130"/>
+      <c r="L24" s="132" t="s">
+        <v>268</v>
+      </c>
+      <c r="M24" s="131"/>
+      <c r="N24" s="131"/>
+      <c r="O24" s="131"/>
+      <c r="P24" s="131"/>
+      <c r="Q24" s="131"/>
+      <c r="R24" s="131"/>
+      <c r="S24" s="131"/>
+      <c r="T24" s="131"/>
+      <c r="U24" s="133"/>
+      <c r="V24" s="129"/>
+      <c r="W24" s="130"/>
+      <c r="X24" s="130"/>
+      <c r="Y24" s="130"/>
+      <c r="Z24" s="130"/>
+      <c r="AA24" s="130"/>
+      <c r="AB24" s="130"/>
+      <c r="AC24" s="130"/>
+      <c r="AD24" s="130"/>
+      <c r="AE24" s="130"/>
+      <c r="AF24" s="130"/>
+      <c r="AG24" s="130"/>
+      <c r="AH24" s="130"/>
+      <c r="AI24" s="130"/>
+      <c r="AJ24" s="130"/>
+      <c r="AK24" s="130"/>
+      <c r="AL24" s="130"/>
+      <c r="AM24" s="130"/>
+      <c r="AN24" s="130"/>
+      <c r="AO24" s="130"/>
+      <c r="AP24" s="130"/>
+      <c r="AQ24" s="130"/>
+      <c r="AR24" s="135"/>
+    </row>
+    <row r="25" spans="10:44" x14ac:dyDescent="0.2">
+      <c r="J25" s="129">
+        <v>2</v>
+      </c>
+      <c r="K25" s="130"/>
+      <c r="L25" s="132" t="s">
+        <v>272</v>
+      </c>
+      <c r="M25" s="131"/>
+      <c r="N25" s="131"/>
+      <c r="O25" s="131"/>
+      <c r="P25" s="131"/>
+      <c r="Q25" s="131"/>
+      <c r="R25" s="131"/>
+      <c r="S25" s="131"/>
+      <c r="T25" s="131"/>
+      <c r="U25" s="133"/>
+      <c r="V25" s="129" t="s">
+        <v>273</v>
+      </c>
+      <c r="W25" s="130"/>
+      <c r="X25" s="130"/>
+      <c r="Y25" s="130"/>
+      <c r="Z25" s="130"/>
+      <c r="AA25" s="130"/>
+      <c r="AB25" s="130"/>
+      <c r="AC25" s="130"/>
+      <c r="AD25" s="130"/>
+      <c r="AE25" s="130"/>
+      <c r="AF25" s="130"/>
+      <c r="AG25" s="130"/>
+      <c r="AH25" s="130"/>
+      <c r="AI25" s="130"/>
+      <c r="AJ25" s="130"/>
+      <c r="AK25" s="130"/>
+      <c r="AL25" s="130"/>
+      <c r="AM25" s="130"/>
+      <c r="AN25" s="130"/>
+      <c r="AO25" s="130"/>
+      <c r="AP25" s="130"/>
+      <c r="AQ25" s="130"/>
+      <c r="AR25" s="135"/>
+    </row>
+    <row r="26" spans="10:44" x14ac:dyDescent="0.2">
+      <c r="J26" s="129"/>
+      <c r="K26" s="130"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="131"/>
+      <c r="N26" s="131"/>
+      <c r="O26" s="131"/>
+      <c r="P26" s="131"/>
+      <c r="Q26" s="131"/>
+      <c r="R26" s="131"/>
+      <c r="S26" s="131"/>
+      <c r="T26" s="131"/>
+      <c r="U26" s="133"/>
+      <c r="V26" s="129"/>
+      <c r="W26" s="130"/>
+      <c r="X26" s="130"/>
+      <c r="Y26" s="130"/>
+      <c r="Z26" s="130"/>
+      <c r="AA26" s="130"/>
+      <c r="AB26" s="130"/>
+      <c r="AC26" s="130"/>
+      <c r="AD26" s="130"/>
+      <c r="AE26" s="130"/>
+      <c r="AF26" s="130"/>
+      <c r="AG26" s="130"/>
+      <c r="AH26" s="130"/>
+      <c r="AI26" s="130"/>
+      <c r="AJ26" s="130"/>
+      <c r="AK26" s="130"/>
+      <c r="AL26" s="130"/>
+      <c r="AM26" s="130"/>
+      <c r="AN26" s="130"/>
+      <c r="AO26" s="130"/>
+      <c r="AP26" s="130"/>
+      <c r="AQ26" s="130"/>
+      <c r="AR26" s="135"/>
+    </row>
+    <row r="27" spans="10:44" x14ac:dyDescent="0.2">
+      <c r="J27" s="129"/>
+      <c r="K27" s="130"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="131"/>
+      <c r="O27" s="131"/>
+      <c r="P27" s="131"/>
+      <c r="Q27" s="131"/>
+      <c r="R27" s="131"/>
+      <c r="S27" s="131"/>
+      <c r="T27" s="131"/>
+      <c r="U27" s="133"/>
+      <c r="V27" s="129"/>
+      <c r="W27" s="130"/>
+      <c r="X27" s="130"/>
+      <c r="Y27" s="130"/>
+      <c r="Z27" s="130"/>
+      <c r="AA27" s="130"/>
+      <c r="AB27" s="130"/>
+      <c r="AC27" s="130"/>
+      <c r="AD27" s="130"/>
+      <c r="AE27" s="130"/>
+      <c r="AF27" s="130"/>
+      <c r="AG27" s="130"/>
+      <c r="AH27" s="130"/>
+      <c r="AI27" s="130"/>
+      <c r="AJ27" s="130"/>
+      <c r="AK27" s="130"/>
+      <c r="AL27" s="130"/>
+      <c r="AM27" s="130"/>
+      <c r="AN27" s="130"/>
+      <c r="AO27" s="130"/>
+      <c r="AP27" s="130"/>
+      <c r="AQ27" s="130"/>
+      <c r="AR27" s="135"/>
+    </row>
+    <row r="28" spans="10:44" x14ac:dyDescent="0.2">
+      <c r="J28" s="129"/>
+      <c r="K28" s="130"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="131"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="131"/>
+      <c r="P28" s="131"/>
+      <c r="Q28" s="131"/>
+      <c r="R28" s="131"/>
+      <c r="S28" s="131"/>
+      <c r="T28" s="131"/>
+      <c r="U28" s="133"/>
+      <c r="V28" s="129"/>
+      <c r="W28" s="130"/>
+      <c r="X28" s="130"/>
+      <c r="Y28" s="130"/>
+      <c r="Z28" s="130"/>
+      <c r="AA28" s="130"/>
+      <c r="AB28" s="130"/>
+      <c r="AC28" s="130"/>
+      <c r="AD28" s="130"/>
+      <c r="AE28" s="130"/>
+      <c r="AF28" s="130"/>
+      <c r="AG28" s="130"/>
+      <c r="AH28" s="130"/>
+      <c r="AI28" s="130"/>
+      <c r="AJ28" s="130"/>
+      <c r="AK28" s="130"/>
+      <c r="AL28" s="130"/>
+      <c r="AM28" s="130"/>
+      <c r="AN28" s="130"/>
+      <c r="AO28" s="130"/>
+      <c r="AP28" s="130"/>
+      <c r="AQ28" s="130"/>
+      <c r="AR28" s="135"/>
+    </row>
+    <row r="29" spans="10:44" x14ac:dyDescent="0.2">
+      <c r="J29" s="129"/>
+      <c r="K29" s="130"/>
+      <c r="L29" s="132"/>
+      <c r="M29" s="131"/>
+      <c r="N29" s="131"/>
+      <c r="O29" s="131"/>
+      <c r="P29" s="131"/>
+      <c r="Q29" s="131"/>
+      <c r="R29" s="131"/>
+      <c r="S29" s="131"/>
+      <c r="T29" s="131"/>
+      <c r="U29" s="133"/>
+      <c r="V29" s="129"/>
+      <c r="W29" s="130"/>
+      <c r="X29" s="130"/>
+      <c r="Y29" s="130"/>
+      <c r="Z29" s="130"/>
+      <c r="AA29" s="130"/>
+      <c r="AB29" s="130"/>
+      <c r="AC29" s="130"/>
+      <c r="AD29" s="130"/>
+      <c r="AE29" s="130"/>
+      <c r="AF29" s="130"/>
+      <c r="AG29" s="130"/>
+      <c r="AH29" s="130"/>
+      <c r="AI29" s="130"/>
+      <c r="AJ29" s="130"/>
+      <c r="AK29" s="130"/>
+      <c r="AL29" s="130"/>
+      <c r="AM29" s="130"/>
+      <c r="AN29" s="130"/>
+      <c r="AO29" s="130"/>
+      <c r="AP29" s="130"/>
+      <c r="AQ29" s="130"/>
+      <c r="AR29" s="135"/>
+    </row>
+    <row r="30" spans="10:44" x14ac:dyDescent="0.2">
+      <c r="J30" s="129"/>
+      <c r="K30" s="130"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="131"/>
+      <c r="N30" s="131"/>
+      <c r="O30" s="131"/>
+      <c r="P30" s="131"/>
+      <c r="Q30" s="131"/>
+      <c r="R30" s="131"/>
+      <c r="S30" s="131"/>
+      <c r="T30" s="131"/>
+      <c r="U30" s="133"/>
+      <c r="V30" s="129"/>
+      <c r="W30" s="130"/>
+      <c r="X30" s="130"/>
+      <c r="Y30" s="130"/>
+      <c r="Z30" s="130"/>
+      <c r="AA30" s="130"/>
+      <c r="AB30" s="130"/>
+      <c r="AC30" s="130"/>
+      <c r="AD30" s="130"/>
+      <c r="AE30" s="130"/>
+      <c r="AF30" s="130"/>
+      <c r="AG30" s="130"/>
+      <c r="AH30" s="130"/>
+      <c r="AI30" s="130"/>
+      <c r="AJ30" s="130"/>
+      <c r="AK30" s="130"/>
+      <c r="AL30" s="130"/>
+      <c r="AM30" s="130"/>
+      <c r="AN30" s="130"/>
+      <c r="AO30" s="130"/>
+      <c r="AP30" s="130"/>
+      <c r="AQ30" s="130"/>
+      <c r="AR30" s="135"/>
+    </row>
+    <row r="31" spans="10:44" x14ac:dyDescent="0.2">
+      <c r="J31" s="129"/>
+      <c r="K31" s="130"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="131"/>
+      <c r="N31" s="131"/>
+      <c r="O31" s="131"/>
+      <c r="P31" s="131"/>
+      <c r="Q31" s="131"/>
+      <c r="R31" s="131"/>
+      <c r="S31" s="131"/>
+      <c r="T31" s="131"/>
+      <c r="U31" s="133"/>
+      <c r="V31" s="129"/>
+      <c r="W31" s="130"/>
+      <c r="X31" s="130"/>
+      <c r="Y31" s="130"/>
+      <c r="Z31" s="130"/>
+      <c r="AA31" s="130"/>
+      <c r="AB31" s="130"/>
+      <c r="AC31" s="130"/>
+      <c r="AD31" s="130"/>
+      <c r="AE31" s="130"/>
+      <c r="AF31" s="130"/>
+      <c r="AG31" s="130"/>
+      <c r="AH31" s="130"/>
+      <c r="AI31" s="130"/>
+      <c r="AJ31" s="130"/>
+      <c r="AK31" s="130"/>
+      <c r="AL31" s="130"/>
+      <c r="AM31" s="130"/>
+      <c r="AN31" s="130"/>
+      <c r="AO31" s="130"/>
+      <c r="AP31" s="130"/>
+      <c r="AQ31" s="130"/>
+      <c r="AR31" s="135"/>
+    </row>
+    <row r="32" spans="10:44" x14ac:dyDescent="0.2">
+      <c r="J32" s="129"/>
+      <c r="K32" s="130"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="131"/>
+      <c r="N32" s="131"/>
+      <c r="O32" s="131"/>
+      <c r="P32" s="131"/>
+      <c r="Q32" s="131"/>
+      <c r="R32" s="131"/>
+      <c r="S32" s="131"/>
+      <c r="T32" s="131"/>
+      <c r="U32" s="133"/>
+      <c r="V32" s="129"/>
+      <c r="W32" s="130"/>
+      <c r="X32" s="130"/>
+      <c r="Y32" s="130"/>
+      <c r="Z32" s="130"/>
+      <c r="AA32" s="130"/>
+      <c r="AB32" s="130"/>
+      <c r="AC32" s="130"/>
+      <c r="AD32" s="130"/>
+      <c r="AE32" s="130"/>
+      <c r="AF32" s="130"/>
+      <c r="AG32" s="130"/>
+      <c r="AH32" s="130"/>
+      <c r="AI32" s="130"/>
+      <c r="AJ32" s="130"/>
+      <c r="AK32" s="130"/>
+      <c r="AL32" s="130"/>
+      <c r="AM32" s="130"/>
+      <c r="AN32" s="130"/>
+      <c r="AO32" s="130"/>
+      <c r="AP32" s="130"/>
+      <c r="AQ32" s="130"/>
+      <c r="AR32" s="135"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:G3"/>
-    <mergeCell ref="H2:M3"/>
-    <mergeCell ref="N2:S3"/>
-    <mergeCell ref="T2:Y3"/>
+  <mergeCells count="35">
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:U31"/>
+    <mergeCell ref="V31:AR31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:U32"/>
+    <mergeCell ref="V32:AR32"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:U29"/>
+    <mergeCell ref="V29:AR29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:U30"/>
+    <mergeCell ref="V30:AR30"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:U27"/>
+    <mergeCell ref="V27:AR27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:U28"/>
+    <mergeCell ref="V28:AR28"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:U25"/>
+    <mergeCell ref="V25:AR25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:U26"/>
+    <mergeCell ref="V26:AR26"/>
+    <mergeCell ref="L24:U24"/>
+    <mergeCell ref="L23:U23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="V23:AR23"/>
+    <mergeCell ref="V24:AR24"/>
+    <mergeCell ref="O5:T6"/>
+    <mergeCell ref="U5:Z6"/>
+    <mergeCell ref="AA5:AF6"/>
+    <mergeCell ref="AG5:AL6"/>
+    <mergeCell ref="O7:AB8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/_doc/成績アプリ.xlsx
+++ b/_doc/成績アプリ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\work\tennis_app\_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6001BAF0-92D3-4990-B815-EC477A7E27F7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7B5B4F-8DE5-46A0-9F4B-8E2159D5B6B9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6936" yWindow="1656" windowWidth="16032" windowHeight="9972" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7351,7 +7351,7 @@
   <dimension ref="J4:AR32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26:AR26"/>
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>

--- a/_doc/成績アプリ.xlsx
+++ b/_doc/成績アプリ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\work\tennis_app\_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7B5B4F-8DE5-46A0-9F4B-8E2159D5B6B9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A7D024-BEA1-41B8-AC11-03712896DAB1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6936" yWindow="1656" windowWidth="16032" windowHeight="9972" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="372" windowWidth="22440" windowHeight="11124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="要求" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="281">
   <si>
     <t>メニューボタン</t>
     <phoneticPr fontId="1"/>
@@ -1629,6 +1629,70 @@
   </si>
   <si>
     <t>True/False</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力する年月日の範囲</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>形式：20XX-XX-XX</t>
+    <rPh sb="0" eb="2">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>export</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>範囲指定は後回し</t>
+    <rPh sb="0" eb="2">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>アトマワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まずはCSV形式でexport出来ることが先決</t>
+    <rPh sb="6" eb="8">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センケツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2723,7 +2787,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3081,6 +3145,33 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3105,32 +3196,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3141,8 +3211,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFFFF"/>
       <color rgb="FF66CCFF"/>
-      <color rgb="FFCCFFFF"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FF99FF99"/>
       <color rgb="FFCCFFCC"/>
@@ -4285,6 +4355,59 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>78105</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>74297</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1506E97A-FF6F-4AAD-928A-851CC42B824D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1678305" y="12428220"/>
+          <a:ext cx="2558415" cy="432437"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4761,10 +4884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY119"/>
+  <dimension ref="A1:AY139"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B1:Q1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB92" sqref="AB92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="10.8" x14ac:dyDescent="0.2"/>
@@ -6402,142 +6525,317 @@
       <c r="S79" s="90"/>
       <c r="T79" s="91"/>
     </row>
-    <row r="82" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" ht="11.4" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B84" s="39"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="23"/>
+      <c r="O84" s="22"/>
+      <c r="P84" s="22"/>
+      <c r="Q84" s="22"/>
+      <c r="R84" s="22"/>
+      <c r="S84" s="22"/>
+      <c r="T84" s="24"/>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B85" s="25"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="26"/>
+      <c r="L85" s="26"/>
+      <c r="M85" s="26"/>
+      <c r="N85" s="26"/>
+      <c r="O85" s="26"/>
+      <c r="P85" s="26"/>
+      <c r="Q85" s="26"/>
+      <c r="R85" s="26"/>
+      <c r="S85" s="26"/>
+      <c r="T85" s="27"/>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B86" s="28"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="29"/>
+      <c r="K86" s="29"/>
+      <c r="L86" s="29"/>
+      <c r="M86" s="29"/>
+      <c r="N86" s="29"/>
+      <c r="O86" s="29"/>
+      <c r="P86" s="29"/>
+      <c r="Q86" s="29"/>
+      <c r="R86" s="29"/>
+      <c r="S86" s="29"/>
+      <c r="T86" s="30"/>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B87" s="25"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="26"/>
+      <c r="L87" s="26"/>
+      <c r="M87" s="26"/>
+      <c r="N87" s="26"/>
+      <c r="O87" s="26"/>
+      <c r="P87" s="26"/>
+      <c r="Q87" s="26"/>
+      <c r="R87" s="26"/>
+      <c r="S87" s="26"/>
+      <c r="T87" s="27"/>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B88" s="25"/>
+      <c r="T88" s="27"/>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B89" s="25"/>
+      <c r="C89" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="T89" s="27"/>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B90" s="25"/>
+      <c r="D90" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="T90" s="27"/>
+      <c r="AB90" s="18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B91" s="25"/>
+      <c r="T91" s="27"/>
+      <c r="AB91" s="18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B92" s="25"/>
+      <c r="C92" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="F92" s="42"/>
+      <c r="G92" s="88"/>
+      <c r="H92" s="88"/>
+      <c r="I92" s="43"/>
+      <c r="T92" s="27"/>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B93" s="25"/>
+      <c r="T93" s="27"/>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B94" s="25"/>
+      <c r="C94" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="F94" s="42"/>
+      <c r="G94" s="88"/>
+      <c r="H94" s="88"/>
+      <c r="I94" s="43"/>
+      <c r="T94" s="27"/>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B95" s="25"/>
+      <c r="T95" s="27"/>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B96" s="25"/>
+      <c r="C96" s="136" t="s">
+        <v>278</v>
+      </c>
+      <c r="D96" s="137"/>
+      <c r="E96" s="137"/>
+      <c r="T96" s="27"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B97" s="25"/>
+      <c r="T97" s="27"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B98" s="25"/>
+      <c r="T98" s="27"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B99" s="25"/>
+      <c r="T99" s="27"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B100" s="25"/>
+      <c r="T100" s="27"/>
+    </row>
+    <row r="102" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B83" s="18" t="s">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B103" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C103" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B84" s="18" t="s">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B104" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C104" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C85" s="18" t="s">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C105" s="18" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B86" s="18" t="s">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B106" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C106" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="16" t="s">
+    <row r="110" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="16" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B91" s="18" t="s">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B111" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C91" s="18" t="s">
+      <c r="C111" s="18" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B92" s="18" t="s">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B112" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C92" s="18" t="s">
+      <c r="C112" s="18" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C93" s="18" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C113" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="D93" s="18" t="s">
+      <c r="D113" s="18" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D94" s="18" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D114" s="18" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B95" s="18" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B115" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="18" t="s">
+      <c r="C115" s="18" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B96" s="18" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B116" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="C96" s="18" t="s">
+      <c r="C116" s="18" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B97" s="18" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B117" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C97" s="18" t="s">
+      <c r="C117" s="18" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="16" t="s">
+    <row r="121" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="16" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B102" s="18" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B122" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="C102" s="18" t="s">
+      <c r="C122" s="18" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B103" s="18" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B123" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="C103" s="18" t="s">
+      <c r="C123" s="18" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="116" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="16" t="s">
+    <row r="136" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B117" s="18" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B137" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C117" s="18" t="s">
+      <c r="C137" s="18" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B118" s="18" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B138" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C118" s="18" t="s">
+      <c r="C138" s="18" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B119" s="18" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B139" s="18" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6570,8 +6868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -7350,7 +7648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD81015E-FB69-41B6-BE92-6C3EA8E20D8D}">
   <dimension ref="J4:AR32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="C16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
@@ -7358,74 +7656,74 @@
   <sheetData>
     <row r="4" spans="15:38" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="15:38" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="O5" s="119"/>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="120"/>
-      <c r="S5" s="120"/>
-      <c r="T5" s="120"/>
-      <c r="U5" s="120"/>
-      <c r="V5" s="120"/>
-      <c r="W5" s="120"/>
-      <c r="X5" s="120"/>
-      <c r="Y5" s="120"/>
-      <c r="Z5" s="120"/>
-      <c r="AA5" s="120"/>
-      <c r="AB5" s="120"/>
-      <c r="AC5" s="120"/>
-      <c r="AD5" s="120"/>
-      <c r="AE5" s="120"/>
-      <c r="AF5" s="120"/>
-      <c r="AG5" s="120"/>
-      <c r="AH5" s="120"/>
-      <c r="AI5" s="120"/>
-      <c r="AJ5" s="120"/>
-      <c r="AK5" s="120"/>
-      <c r="AL5" s="123"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="129"/>
+      <c r="T5" s="129"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="129"/>
+      <c r="W5" s="129"/>
+      <c r="X5" s="129"/>
+      <c r="Y5" s="129"/>
+      <c r="Z5" s="129"/>
+      <c r="AA5" s="129"/>
+      <c r="AB5" s="129"/>
+      <c r="AC5" s="129"/>
+      <c r="AD5" s="129"/>
+      <c r="AE5" s="129"/>
+      <c r="AF5" s="129"/>
+      <c r="AG5" s="129"/>
+      <c r="AH5" s="129"/>
+      <c r="AI5" s="129"/>
+      <c r="AJ5" s="129"/>
+      <c r="AK5" s="129"/>
+      <c r="AL5" s="132"/>
     </row>
     <row r="6" spans="15:38" x14ac:dyDescent="0.2">
-      <c r="O6" s="121"/>
-      <c r="P6" s="122"/>
-      <c r="Q6" s="122"/>
-      <c r="R6" s="122"/>
-      <c r="S6" s="122"/>
-      <c r="T6" s="122"/>
-      <c r="U6" s="122"/>
-      <c r="V6" s="122"/>
-      <c r="W6" s="122"/>
-      <c r="X6" s="122"/>
-      <c r="Y6" s="122"/>
-      <c r="Z6" s="122"/>
-      <c r="AA6" s="122"/>
-      <c r="AB6" s="122"/>
-      <c r="AC6" s="122"/>
-      <c r="AD6" s="122"/>
-      <c r="AE6" s="122"/>
-      <c r="AF6" s="122"/>
-      <c r="AG6" s="122"/>
-      <c r="AH6" s="122"/>
-      <c r="AI6" s="122"/>
-      <c r="AJ6" s="122"/>
-      <c r="AK6" s="122"/>
-      <c r="AL6" s="124"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="131"/>
+      <c r="Q6" s="131"/>
+      <c r="R6" s="131"/>
+      <c r="S6" s="131"/>
+      <c r="T6" s="131"/>
+      <c r="U6" s="131"/>
+      <c r="V6" s="131"/>
+      <c r="W6" s="131"/>
+      <c r="X6" s="131"/>
+      <c r="Y6" s="131"/>
+      <c r="Z6" s="131"/>
+      <c r="AA6" s="131"/>
+      <c r="AB6" s="131"/>
+      <c r="AC6" s="131"/>
+      <c r="AD6" s="131"/>
+      <c r="AE6" s="131"/>
+      <c r="AF6" s="131"/>
+      <c r="AG6" s="131"/>
+      <c r="AH6" s="131"/>
+      <c r="AI6" s="131"/>
+      <c r="AJ6" s="131"/>
+      <c r="AK6" s="131"/>
+      <c r="AL6" s="133"/>
     </row>
     <row r="7" spans="15:38" x14ac:dyDescent="0.2">
-      <c r="O7" s="125" t="s">
+      <c r="O7" s="134" t="s">
         <v>267</v>
       </c>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
-      <c r="T7" s="126"/>
-      <c r="U7" s="126"/>
-      <c r="V7" s="126"/>
-      <c r="W7" s="126"/>
-      <c r="X7" s="126"/>
-      <c r="Y7" s="126"/>
-      <c r="Z7" s="126"/>
-      <c r="AA7" s="126"/>
-      <c r="AB7" s="126"/>
+      <c r="P7" s="135"/>
+      <c r="Q7" s="135"/>
+      <c r="R7" s="135"/>
+      <c r="S7" s="135"/>
+      <c r="T7" s="135"/>
+      <c r="U7" s="135"/>
+      <c r="V7" s="135"/>
+      <c r="W7" s="135"/>
+      <c r="X7" s="135"/>
+      <c r="Y7" s="135"/>
+      <c r="Z7" s="135"/>
+      <c r="AA7" s="135"/>
+      <c r="AB7" s="135"/>
       <c r="AC7" s="98"/>
       <c r="AD7" s="98"/>
       <c r="AE7" s="98"/>
@@ -7438,20 +7736,20 @@
       <c r="AL7" s="99"/>
     </row>
     <row r="8" spans="15:38" x14ac:dyDescent="0.2">
-      <c r="O8" s="125"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
-      <c r="S8" s="126"/>
-      <c r="T8" s="126"/>
-      <c r="U8" s="126"/>
-      <c r="V8" s="126"/>
-      <c r="W8" s="126"/>
-      <c r="X8" s="126"/>
-      <c r="Y8" s="126"/>
-      <c r="Z8" s="126"/>
-      <c r="AA8" s="126"/>
-      <c r="AB8" s="126"/>
+      <c r="O8" s="134"/>
+      <c r="P8" s="135"/>
+      <c r="Q8" s="135"/>
+      <c r="R8" s="135"/>
+      <c r="S8" s="135"/>
+      <c r="T8" s="135"/>
+      <c r="U8" s="135"/>
+      <c r="V8" s="135"/>
+      <c r="W8" s="135"/>
+      <c r="X8" s="135"/>
+      <c r="Y8" s="135"/>
+      <c r="Z8" s="135"/>
+      <c r="AA8" s="135"/>
+      <c r="AB8" s="135"/>
       <c r="AC8" s="98"/>
       <c r="AD8" s="98"/>
       <c r="AE8" s="98"/>
@@ -7639,428 +7937,428 @@
       </c>
     </row>
     <row r="23" spans="10:44" x14ac:dyDescent="0.2">
-      <c r="J23" s="127" t="s">
+      <c r="J23" s="125" t="s">
         <v>269</v>
       </c>
-      <c r="K23" s="128"/>
-      <c r="L23" s="132" t="s">
+      <c r="K23" s="126"/>
+      <c r="L23" s="121" t="s">
         <v>270</v>
       </c>
-      <c r="M23" s="131"/>
-      <c r="N23" s="131"/>
-      <c r="O23" s="131"/>
-      <c r="P23" s="131"/>
-      <c r="Q23" s="131"/>
-      <c r="R23" s="131"/>
-      <c r="S23" s="131"/>
-      <c r="T23" s="131"/>
-      <c r="U23" s="133"/>
-      <c r="V23" s="127" t="s">
+      <c r="M23" s="122"/>
+      <c r="N23" s="122"/>
+      <c r="O23" s="122"/>
+      <c r="P23" s="122"/>
+      <c r="Q23" s="122"/>
+      <c r="R23" s="122"/>
+      <c r="S23" s="122"/>
+      <c r="T23" s="122"/>
+      <c r="U23" s="123"/>
+      <c r="V23" s="125" t="s">
         <v>271</v>
       </c>
-      <c r="W23" s="128"/>
-      <c r="X23" s="128"/>
-      <c r="Y23" s="128"/>
-      <c r="Z23" s="128"/>
-      <c r="AA23" s="128"/>
-      <c r="AB23" s="128"/>
-      <c r="AC23" s="128"/>
-      <c r="AD23" s="128"/>
-      <c r="AE23" s="128"/>
-      <c r="AF23" s="128"/>
-      <c r="AG23" s="128"/>
-      <c r="AH23" s="128"/>
-      <c r="AI23" s="128"/>
-      <c r="AJ23" s="128"/>
-      <c r="AK23" s="128"/>
-      <c r="AL23" s="128"/>
-      <c r="AM23" s="128"/>
-      <c r="AN23" s="128"/>
-      <c r="AO23" s="128"/>
-      <c r="AP23" s="128"/>
-      <c r="AQ23" s="128"/>
-      <c r="AR23" s="134"/>
+      <c r="W23" s="126"/>
+      <c r="X23" s="126"/>
+      <c r="Y23" s="126"/>
+      <c r="Z23" s="126"/>
+      <c r="AA23" s="126"/>
+      <c r="AB23" s="126"/>
+      <c r="AC23" s="126"/>
+      <c r="AD23" s="126"/>
+      <c r="AE23" s="126"/>
+      <c r="AF23" s="126"/>
+      <c r="AG23" s="126"/>
+      <c r="AH23" s="126"/>
+      <c r="AI23" s="126"/>
+      <c r="AJ23" s="126"/>
+      <c r="AK23" s="126"/>
+      <c r="AL23" s="126"/>
+      <c r="AM23" s="126"/>
+      <c r="AN23" s="126"/>
+      <c r="AO23" s="126"/>
+      <c r="AP23" s="126"/>
+      <c r="AQ23" s="126"/>
+      <c r="AR23" s="127"/>
     </row>
     <row r="24" spans="10:44" x14ac:dyDescent="0.2">
-      <c r="J24" s="129">
+      <c r="J24" s="119">
         <v>1</v>
       </c>
-      <c r="K24" s="130"/>
-      <c r="L24" s="132" t="s">
+      <c r="K24" s="120"/>
+      <c r="L24" s="121" t="s">
         <v>268</v>
       </c>
-      <c r="M24" s="131"/>
-      <c r="N24" s="131"/>
-      <c r="O24" s="131"/>
-      <c r="P24" s="131"/>
-      <c r="Q24" s="131"/>
-      <c r="R24" s="131"/>
-      <c r="S24" s="131"/>
-      <c r="T24" s="131"/>
-      <c r="U24" s="133"/>
-      <c r="V24" s="129"/>
-      <c r="W24" s="130"/>
-      <c r="X24" s="130"/>
-      <c r="Y24" s="130"/>
-      <c r="Z24" s="130"/>
-      <c r="AA24" s="130"/>
-      <c r="AB24" s="130"/>
-      <c r="AC24" s="130"/>
-      <c r="AD24" s="130"/>
-      <c r="AE24" s="130"/>
-      <c r="AF24" s="130"/>
-      <c r="AG24" s="130"/>
-      <c r="AH24" s="130"/>
-      <c r="AI24" s="130"/>
-      <c r="AJ24" s="130"/>
-      <c r="AK24" s="130"/>
-      <c r="AL24" s="130"/>
-      <c r="AM24" s="130"/>
-      <c r="AN24" s="130"/>
-      <c r="AO24" s="130"/>
-      <c r="AP24" s="130"/>
-      <c r="AQ24" s="130"/>
-      <c r="AR24" s="135"/>
+      <c r="M24" s="122"/>
+      <c r="N24" s="122"/>
+      <c r="O24" s="122"/>
+      <c r="P24" s="122"/>
+      <c r="Q24" s="122"/>
+      <c r="R24" s="122"/>
+      <c r="S24" s="122"/>
+      <c r="T24" s="122"/>
+      <c r="U24" s="123"/>
+      <c r="V24" s="119"/>
+      <c r="W24" s="120"/>
+      <c r="X24" s="120"/>
+      <c r="Y24" s="120"/>
+      <c r="Z24" s="120"/>
+      <c r="AA24" s="120"/>
+      <c r="AB24" s="120"/>
+      <c r="AC24" s="120"/>
+      <c r="AD24" s="120"/>
+      <c r="AE24" s="120"/>
+      <c r="AF24" s="120"/>
+      <c r="AG24" s="120"/>
+      <c r="AH24" s="120"/>
+      <c r="AI24" s="120"/>
+      <c r="AJ24" s="120"/>
+      <c r="AK24" s="120"/>
+      <c r="AL24" s="120"/>
+      <c r="AM24" s="120"/>
+      <c r="AN24" s="120"/>
+      <c r="AO24" s="120"/>
+      <c r="AP24" s="120"/>
+      <c r="AQ24" s="120"/>
+      <c r="AR24" s="124"/>
     </row>
     <row r="25" spans="10:44" x14ac:dyDescent="0.2">
-      <c r="J25" s="129">
+      <c r="J25" s="119">
         <v>2</v>
       </c>
-      <c r="K25" s="130"/>
-      <c r="L25" s="132" t="s">
+      <c r="K25" s="120"/>
+      <c r="L25" s="121" t="s">
         <v>272</v>
       </c>
-      <c r="M25" s="131"/>
-      <c r="N25" s="131"/>
-      <c r="O25" s="131"/>
-      <c r="P25" s="131"/>
-      <c r="Q25" s="131"/>
-      <c r="R25" s="131"/>
-      <c r="S25" s="131"/>
-      <c r="T25" s="131"/>
-      <c r="U25" s="133"/>
-      <c r="V25" s="129" t="s">
+      <c r="M25" s="122"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="122"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="122"/>
+      <c r="S25" s="122"/>
+      <c r="T25" s="122"/>
+      <c r="U25" s="123"/>
+      <c r="V25" s="119" t="s">
         <v>273</v>
       </c>
-      <c r="W25" s="130"/>
-      <c r="X25" s="130"/>
-      <c r="Y25" s="130"/>
-      <c r="Z25" s="130"/>
-      <c r="AA25" s="130"/>
-      <c r="AB25" s="130"/>
-      <c r="AC25" s="130"/>
-      <c r="AD25" s="130"/>
-      <c r="AE25" s="130"/>
-      <c r="AF25" s="130"/>
-      <c r="AG25" s="130"/>
-      <c r="AH25" s="130"/>
-      <c r="AI25" s="130"/>
-      <c r="AJ25" s="130"/>
-      <c r="AK25" s="130"/>
-      <c r="AL25" s="130"/>
-      <c r="AM25" s="130"/>
-      <c r="AN25" s="130"/>
-      <c r="AO25" s="130"/>
-      <c r="AP25" s="130"/>
-      <c r="AQ25" s="130"/>
-      <c r="AR25" s="135"/>
+      <c r="W25" s="120"/>
+      <c r="X25" s="120"/>
+      <c r="Y25" s="120"/>
+      <c r="Z25" s="120"/>
+      <c r="AA25" s="120"/>
+      <c r="AB25" s="120"/>
+      <c r="AC25" s="120"/>
+      <c r="AD25" s="120"/>
+      <c r="AE25" s="120"/>
+      <c r="AF25" s="120"/>
+      <c r="AG25" s="120"/>
+      <c r="AH25" s="120"/>
+      <c r="AI25" s="120"/>
+      <c r="AJ25" s="120"/>
+      <c r="AK25" s="120"/>
+      <c r="AL25" s="120"/>
+      <c r="AM25" s="120"/>
+      <c r="AN25" s="120"/>
+      <c r="AO25" s="120"/>
+      <c r="AP25" s="120"/>
+      <c r="AQ25" s="120"/>
+      <c r="AR25" s="124"/>
     </row>
     <row r="26" spans="10:44" x14ac:dyDescent="0.2">
-      <c r="J26" s="129"/>
-      <c r="K26" s="130"/>
-      <c r="L26" s="132"/>
-      <c r="M26" s="131"/>
-      <c r="N26" s="131"/>
-      <c r="O26" s="131"/>
-      <c r="P26" s="131"/>
-      <c r="Q26" s="131"/>
-      <c r="R26" s="131"/>
-      <c r="S26" s="131"/>
-      <c r="T26" s="131"/>
-      <c r="U26" s="133"/>
-      <c r="V26" s="129"/>
-      <c r="W26" s="130"/>
-      <c r="X26" s="130"/>
-      <c r="Y26" s="130"/>
-      <c r="Z26" s="130"/>
-      <c r="AA26" s="130"/>
-      <c r="AB26" s="130"/>
-      <c r="AC26" s="130"/>
-      <c r="AD26" s="130"/>
-      <c r="AE26" s="130"/>
-      <c r="AF26" s="130"/>
-      <c r="AG26" s="130"/>
-      <c r="AH26" s="130"/>
-      <c r="AI26" s="130"/>
-      <c r="AJ26" s="130"/>
-      <c r="AK26" s="130"/>
-      <c r="AL26" s="130"/>
-      <c r="AM26" s="130"/>
-      <c r="AN26" s="130"/>
-      <c r="AO26" s="130"/>
-      <c r="AP26" s="130"/>
-      <c r="AQ26" s="130"/>
-      <c r="AR26" s="135"/>
+      <c r="J26" s="119"/>
+      <c r="K26" s="120"/>
+      <c r="L26" s="121"/>
+      <c r="M26" s="122"/>
+      <c r="N26" s="122"/>
+      <c r="O26" s="122"/>
+      <c r="P26" s="122"/>
+      <c r="Q26" s="122"/>
+      <c r="R26" s="122"/>
+      <c r="S26" s="122"/>
+      <c r="T26" s="122"/>
+      <c r="U26" s="123"/>
+      <c r="V26" s="119"/>
+      <c r="W26" s="120"/>
+      <c r="X26" s="120"/>
+      <c r="Y26" s="120"/>
+      <c r="Z26" s="120"/>
+      <c r="AA26" s="120"/>
+      <c r="AB26" s="120"/>
+      <c r="AC26" s="120"/>
+      <c r="AD26" s="120"/>
+      <c r="AE26" s="120"/>
+      <c r="AF26" s="120"/>
+      <c r="AG26" s="120"/>
+      <c r="AH26" s="120"/>
+      <c r="AI26" s="120"/>
+      <c r="AJ26" s="120"/>
+      <c r="AK26" s="120"/>
+      <c r="AL26" s="120"/>
+      <c r="AM26" s="120"/>
+      <c r="AN26" s="120"/>
+      <c r="AO26" s="120"/>
+      <c r="AP26" s="120"/>
+      <c r="AQ26" s="120"/>
+      <c r="AR26" s="124"/>
     </row>
     <row r="27" spans="10:44" x14ac:dyDescent="0.2">
-      <c r="J27" s="129"/>
-      <c r="K27" s="130"/>
-      <c r="L27" s="132"/>
-      <c r="M27" s="131"/>
-      <c r="N27" s="131"/>
-      <c r="O27" s="131"/>
-      <c r="P27" s="131"/>
-      <c r="Q27" s="131"/>
-      <c r="R27" s="131"/>
-      <c r="S27" s="131"/>
-      <c r="T27" s="131"/>
-      <c r="U27" s="133"/>
-      <c r="V27" s="129"/>
-      <c r="W27" s="130"/>
-      <c r="X27" s="130"/>
-      <c r="Y27" s="130"/>
-      <c r="Z27" s="130"/>
-      <c r="AA27" s="130"/>
-      <c r="AB27" s="130"/>
-      <c r="AC27" s="130"/>
-      <c r="AD27" s="130"/>
-      <c r="AE27" s="130"/>
-      <c r="AF27" s="130"/>
-      <c r="AG27" s="130"/>
-      <c r="AH27" s="130"/>
-      <c r="AI27" s="130"/>
-      <c r="AJ27" s="130"/>
-      <c r="AK27" s="130"/>
-      <c r="AL27" s="130"/>
-      <c r="AM27" s="130"/>
-      <c r="AN27" s="130"/>
-      <c r="AO27" s="130"/>
-      <c r="AP27" s="130"/>
-      <c r="AQ27" s="130"/>
-      <c r="AR27" s="135"/>
+      <c r="J27" s="119"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="121"/>
+      <c r="M27" s="122"/>
+      <c r="N27" s="122"/>
+      <c r="O27" s="122"/>
+      <c r="P27" s="122"/>
+      <c r="Q27" s="122"/>
+      <c r="R27" s="122"/>
+      <c r="S27" s="122"/>
+      <c r="T27" s="122"/>
+      <c r="U27" s="123"/>
+      <c r="V27" s="119"/>
+      <c r="W27" s="120"/>
+      <c r="X27" s="120"/>
+      <c r="Y27" s="120"/>
+      <c r="Z27" s="120"/>
+      <c r="AA27" s="120"/>
+      <c r="AB27" s="120"/>
+      <c r="AC27" s="120"/>
+      <c r="AD27" s="120"/>
+      <c r="AE27" s="120"/>
+      <c r="AF27" s="120"/>
+      <c r="AG27" s="120"/>
+      <c r="AH27" s="120"/>
+      <c r="AI27" s="120"/>
+      <c r="AJ27" s="120"/>
+      <c r="AK27" s="120"/>
+      <c r="AL27" s="120"/>
+      <c r="AM27" s="120"/>
+      <c r="AN27" s="120"/>
+      <c r="AO27" s="120"/>
+      <c r="AP27" s="120"/>
+      <c r="AQ27" s="120"/>
+      <c r="AR27" s="124"/>
     </row>
     <row r="28" spans="10:44" x14ac:dyDescent="0.2">
-      <c r="J28" s="129"/>
-      <c r="K28" s="130"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="131"/>
-      <c r="N28" s="131"/>
-      <c r="O28" s="131"/>
-      <c r="P28" s="131"/>
-      <c r="Q28" s="131"/>
-      <c r="R28" s="131"/>
-      <c r="S28" s="131"/>
-      <c r="T28" s="131"/>
-      <c r="U28" s="133"/>
-      <c r="V28" s="129"/>
-      <c r="W28" s="130"/>
-      <c r="X28" s="130"/>
-      <c r="Y28" s="130"/>
-      <c r="Z28" s="130"/>
-      <c r="AA28" s="130"/>
-      <c r="AB28" s="130"/>
-      <c r="AC28" s="130"/>
-      <c r="AD28" s="130"/>
-      <c r="AE28" s="130"/>
-      <c r="AF28" s="130"/>
-      <c r="AG28" s="130"/>
-      <c r="AH28" s="130"/>
-      <c r="AI28" s="130"/>
-      <c r="AJ28" s="130"/>
-      <c r="AK28" s="130"/>
-      <c r="AL28" s="130"/>
-      <c r="AM28" s="130"/>
-      <c r="AN28" s="130"/>
-      <c r="AO28" s="130"/>
-      <c r="AP28" s="130"/>
-      <c r="AQ28" s="130"/>
-      <c r="AR28" s="135"/>
+      <c r="J28" s="119"/>
+      <c r="K28" s="120"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="122"/>
+      <c r="N28" s="122"/>
+      <c r="O28" s="122"/>
+      <c r="P28" s="122"/>
+      <c r="Q28" s="122"/>
+      <c r="R28" s="122"/>
+      <c r="S28" s="122"/>
+      <c r="T28" s="122"/>
+      <c r="U28" s="123"/>
+      <c r="V28" s="119"/>
+      <c r="W28" s="120"/>
+      <c r="X28" s="120"/>
+      <c r="Y28" s="120"/>
+      <c r="Z28" s="120"/>
+      <c r="AA28" s="120"/>
+      <c r="AB28" s="120"/>
+      <c r="AC28" s="120"/>
+      <c r="AD28" s="120"/>
+      <c r="AE28" s="120"/>
+      <c r="AF28" s="120"/>
+      <c r="AG28" s="120"/>
+      <c r="AH28" s="120"/>
+      <c r="AI28" s="120"/>
+      <c r="AJ28" s="120"/>
+      <c r="AK28" s="120"/>
+      <c r="AL28" s="120"/>
+      <c r="AM28" s="120"/>
+      <c r="AN28" s="120"/>
+      <c r="AO28" s="120"/>
+      <c r="AP28" s="120"/>
+      <c r="AQ28" s="120"/>
+      <c r="AR28" s="124"/>
     </row>
     <row r="29" spans="10:44" x14ac:dyDescent="0.2">
-      <c r="J29" s="129"/>
-      <c r="K29" s="130"/>
-      <c r="L29" s="132"/>
-      <c r="M29" s="131"/>
-      <c r="N29" s="131"/>
-      <c r="O29" s="131"/>
-      <c r="P29" s="131"/>
-      <c r="Q29" s="131"/>
-      <c r="R29" s="131"/>
-      <c r="S29" s="131"/>
-      <c r="T29" s="131"/>
-      <c r="U29" s="133"/>
-      <c r="V29" s="129"/>
-      <c r="W29" s="130"/>
-      <c r="X29" s="130"/>
-      <c r="Y29" s="130"/>
-      <c r="Z29" s="130"/>
-      <c r="AA29" s="130"/>
-      <c r="AB29" s="130"/>
-      <c r="AC29" s="130"/>
-      <c r="AD29" s="130"/>
-      <c r="AE29" s="130"/>
-      <c r="AF29" s="130"/>
-      <c r="AG29" s="130"/>
-      <c r="AH29" s="130"/>
-      <c r="AI29" s="130"/>
-      <c r="AJ29" s="130"/>
-      <c r="AK29" s="130"/>
-      <c r="AL29" s="130"/>
-      <c r="AM29" s="130"/>
-      <c r="AN29" s="130"/>
-      <c r="AO29" s="130"/>
-      <c r="AP29" s="130"/>
-      <c r="AQ29" s="130"/>
-      <c r="AR29" s="135"/>
+      <c r="J29" s="119"/>
+      <c r="K29" s="120"/>
+      <c r="L29" s="121"/>
+      <c r="M29" s="122"/>
+      <c r="N29" s="122"/>
+      <c r="O29" s="122"/>
+      <c r="P29" s="122"/>
+      <c r="Q29" s="122"/>
+      <c r="R29" s="122"/>
+      <c r="S29" s="122"/>
+      <c r="T29" s="122"/>
+      <c r="U29" s="123"/>
+      <c r="V29" s="119"/>
+      <c r="W29" s="120"/>
+      <c r="X29" s="120"/>
+      <c r="Y29" s="120"/>
+      <c r="Z29" s="120"/>
+      <c r="AA29" s="120"/>
+      <c r="AB29" s="120"/>
+      <c r="AC29" s="120"/>
+      <c r="AD29" s="120"/>
+      <c r="AE29" s="120"/>
+      <c r="AF29" s="120"/>
+      <c r="AG29" s="120"/>
+      <c r="AH29" s="120"/>
+      <c r="AI29" s="120"/>
+      <c r="AJ29" s="120"/>
+      <c r="AK29" s="120"/>
+      <c r="AL29" s="120"/>
+      <c r="AM29" s="120"/>
+      <c r="AN29" s="120"/>
+      <c r="AO29" s="120"/>
+      <c r="AP29" s="120"/>
+      <c r="AQ29" s="120"/>
+      <c r="AR29" s="124"/>
     </row>
     <row r="30" spans="10:44" x14ac:dyDescent="0.2">
-      <c r="J30" s="129"/>
-      <c r="K30" s="130"/>
-      <c r="L30" s="132"/>
-      <c r="M30" s="131"/>
-      <c r="N30" s="131"/>
-      <c r="O30" s="131"/>
-      <c r="P30" s="131"/>
-      <c r="Q30" s="131"/>
-      <c r="R30" s="131"/>
-      <c r="S30" s="131"/>
-      <c r="T30" s="131"/>
-      <c r="U30" s="133"/>
-      <c r="V30" s="129"/>
-      <c r="W30" s="130"/>
-      <c r="X30" s="130"/>
-      <c r="Y30" s="130"/>
-      <c r="Z30" s="130"/>
-      <c r="AA30" s="130"/>
-      <c r="AB30" s="130"/>
-      <c r="AC30" s="130"/>
-      <c r="AD30" s="130"/>
-      <c r="AE30" s="130"/>
-      <c r="AF30" s="130"/>
-      <c r="AG30" s="130"/>
-      <c r="AH30" s="130"/>
-      <c r="AI30" s="130"/>
-      <c r="AJ30" s="130"/>
-      <c r="AK30" s="130"/>
-      <c r="AL30" s="130"/>
-      <c r="AM30" s="130"/>
-      <c r="AN30" s="130"/>
-      <c r="AO30" s="130"/>
-      <c r="AP30" s="130"/>
-      <c r="AQ30" s="130"/>
-      <c r="AR30" s="135"/>
+      <c r="J30" s="119"/>
+      <c r="K30" s="120"/>
+      <c r="L30" s="121"/>
+      <c r="M30" s="122"/>
+      <c r="N30" s="122"/>
+      <c r="O30" s="122"/>
+      <c r="P30" s="122"/>
+      <c r="Q30" s="122"/>
+      <c r="R30" s="122"/>
+      <c r="S30" s="122"/>
+      <c r="T30" s="122"/>
+      <c r="U30" s="123"/>
+      <c r="V30" s="119"/>
+      <c r="W30" s="120"/>
+      <c r="X30" s="120"/>
+      <c r="Y30" s="120"/>
+      <c r="Z30" s="120"/>
+      <c r="AA30" s="120"/>
+      <c r="AB30" s="120"/>
+      <c r="AC30" s="120"/>
+      <c r="AD30" s="120"/>
+      <c r="AE30" s="120"/>
+      <c r="AF30" s="120"/>
+      <c r="AG30" s="120"/>
+      <c r="AH30" s="120"/>
+      <c r="AI30" s="120"/>
+      <c r="AJ30" s="120"/>
+      <c r="AK30" s="120"/>
+      <c r="AL30" s="120"/>
+      <c r="AM30" s="120"/>
+      <c r="AN30" s="120"/>
+      <c r="AO30" s="120"/>
+      <c r="AP30" s="120"/>
+      <c r="AQ30" s="120"/>
+      <c r="AR30" s="124"/>
     </row>
     <row r="31" spans="10:44" x14ac:dyDescent="0.2">
-      <c r="J31" s="129"/>
-      <c r="K31" s="130"/>
-      <c r="L31" s="132"/>
-      <c r="M31" s="131"/>
-      <c r="N31" s="131"/>
-      <c r="O31" s="131"/>
-      <c r="P31" s="131"/>
-      <c r="Q31" s="131"/>
-      <c r="R31" s="131"/>
-      <c r="S31" s="131"/>
-      <c r="T31" s="131"/>
-      <c r="U31" s="133"/>
-      <c r="V31" s="129"/>
-      <c r="W31" s="130"/>
-      <c r="X31" s="130"/>
-      <c r="Y31" s="130"/>
-      <c r="Z31" s="130"/>
-      <c r="AA31" s="130"/>
-      <c r="AB31" s="130"/>
-      <c r="AC31" s="130"/>
-      <c r="AD31" s="130"/>
-      <c r="AE31" s="130"/>
-      <c r="AF31" s="130"/>
-      <c r="AG31" s="130"/>
-      <c r="AH31" s="130"/>
-      <c r="AI31" s="130"/>
-      <c r="AJ31" s="130"/>
-      <c r="AK31" s="130"/>
-      <c r="AL31" s="130"/>
-      <c r="AM31" s="130"/>
-      <c r="AN31" s="130"/>
-      <c r="AO31" s="130"/>
-      <c r="AP31" s="130"/>
-      <c r="AQ31" s="130"/>
-      <c r="AR31" s="135"/>
+      <c r="J31" s="119"/>
+      <c r="K31" s="120"/>
+      <c r="L31" s="121"/>
+      <c r="M31" s="122"/>
+      <c r="N31" s="122"/>
+      <c r="O31" s="122"/>
+      <c r="P31" s="122"/>
+      <c r="Q31" s="122"/>
+      <c r="R31" s="122"/>
+      <c r="S31" s="122"/>
+      <c r="T31" s="122"/>
+      <c r="U31" s="123"/>
+      <c r="V31" s="119"/>
+      <c r="W31" s="120"/>
+      <c r="X31" s="120"/>
+      <c r="Y31" s="120"/>
+      <c r="Z31" s="120"/>
+      <c r="AA31" s="120"/>
+      <c r="AB31" s="120"/>
+      <c r="AC31" s="120"/>
+      <c r="AD31" s="120"/>
+      <c r="AE31" s="120"/>
+      <c r="AF31" s="120"/>
+      <c r="AG31" s="120"/>
+      <c r="AH31" s="120"/>
+      <c r="AI31" s="120"/>
+      <c r="AJ31" s="120"/>
+      <c r="AK31" s="120"/>
+      <c r="AL31" s="120"/>
+      <c r="AM31" s="120"/>
+      <c r="AN31" s="120"/>
+      <c r="AO31" s="120"/>
+      <c r="AP31" s="120"/>
+      <c r="AQ31" s="120"/>
+      <c r="AR31" s="124"/>
     </row>
     <row r="32" spans="10:44" x14ac:dyDescent="0.2">
-      <c r="J32" s="129"/>
-      <c r="K32" s="130"/>
-      <c r="L32" s="132"/>
-      <c r="M32" s="131"/>
-      <c r="N32" s="131"/>
-      <c r="O32" s="131"/>
-      <c r="P32" s="131"/>
-      <c r="Q32" s="131"/>
-      <c r="R32" s="131"/>
-      <c r="S32" s="131"/>
-      <c r="T32" s="131"/>
-      <c r="U32" s="133"/>
-      <c r="V32" s="129"/>
-      <c r="W32" s="130"/>
-      <c r="X32" s="130"/>
-      <c r="Y32" s="130"/>
-      <c r="Z32" s="130"/>
-      <c r="AA32" s="130"/>
-      <c r="AB32" s="130"/>
-      <c r="AC32" s="130"/>
-      <c r="AD32" s="130"/>
-      <c r="AE32" s="130"/>
-      <c r="AF32" s="130"/>
-      <c r="AG32" s="130"/>
-      <c r="AH32" s="130"/>
-      <c r="AI32" s="130"/>
-      <c r="AJ32" s="130"/>
-      <c r="AK32" s="130"/>
-      <c r="AL32" s="130"/>
-      <c r="AM32" s="130"/>
-      <c r="AN32" s="130"/>
-      <c r="AO32" s="130"/>
-      <c r="AP32" s="130"/>
-      <c r="AQ32" s="130"/>
-      <c r="AR32" s="135"/>
+      <c r="J32" s="119"/>
+      <c r="K32" s="120"/>
+      <c r="L32" s="121"/>
+      <c r="M32" s="122"/>
+      <c r="N32" s="122"/>
+      <c r="O32" s="122"/>
+      <c r="P32" s="122"/>
+      <c r="Q32" s="122"/>
+      <c r="R32" s="122"/>
+      <c r="S32" s="122"/>
+      <c r="T32" s="122"/>
+      <c r="U32" s="123"/>
+      <c r="V32" s="119"/>
+      <c r="W32" s="120"/>
+      <c r="X32" s="120"/>
+      <c r="Y32" s="120"/>
+      <c r="Z32" s="120"/>
+      <c r="AA32" s="120"/>
+      <c r="AB32" s="120"/>
+      <c r="AC32" s="120"/>
+      <c r="AD32" s="120"/>
+      <c r="AE32" s="120"/>
+      <c r="AF32" s="120"/>
+      <c r="AG32" s="120"/>
+      <c r="AH32" s="120"/>
+      <c r="AI32" s="120"/>
+      <c r="AJ32" s="120"/>
+      <c r="AK32" s="120"/>
+      <c r="AL32" s="120"/>
+      <c r="AM32" s="120"/>
+      <c r="AN32" s="120"/>
+      <c r="AO32" s="120"/>
+      <c r="AP32" s="120"/>
+      <c r="AQ32" s="120"/>
+      <c r="AR32" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="O5:T6"/>
+    <mergeCell ref="U5:Z6"/>
+    <mergeCell ref="AA5:AF6"/>
+    <mergeCell ref="AG5:AL6"/>
+    <mergeCell ref="O7:AB8"/>
+    <mergeCell ref="L24:U24"/>
+    <mergeCell ref="L23:U23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="V23:AR23"/>
+    <mergeCell ref="V24:AR24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:U25"/>
+    <mergeCell ref="V25:AR25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:U26"/>
+    <mergeCell ref="V26:AR26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:U27"/>
+    <mergeCell ref="V27:AR27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:U28"/>
+    <mergeCell ref="V28:AR28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:U29"/>
+    <mergeCell ref="V29:AR29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:U30"/>
+    <mergeCell ref="V30:AR30"/>
     <mergeCell ref="J31:K31"/>
     <mergeCell ref="L31:U31"/>
     <mergeCell ref="V31:AR31"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="L32:U32"/>
     <mergeCell ref="V32:AR32"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:U29"/>
-    <mergeCell ref="V29:AR29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:U30"/>
-    <mergeCell ref="V30:AR30"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:U27"/>
-    <mergeCell ref="V27:AR27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:U28"/>
-    <mergeCell ref="V28:AR28"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:U25"/>
-    <mergeCell ref="V25:AR25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:U26"/>
-    <mergeCell ref="V26:AR26"/>
-    <mergeCell ref="L24:U24"/>
-    <mergeCell ref="L23:U23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="V23:AR23"/>
-    <mergeCell ref="V24:AR24"/>
-    <mergeCell ref="O5:T6"/>
-    <mergeCell ref="U5:Z6"/>
-    <mergeCell ref="AA5:AF6"/>
-    <mergeCell ref="AG5:AL6"/>
-    <mergeCell ref="O7:AB8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_doc/成績アプリ.xlsx
+++ b/_doc/成績アプリ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\work\tennis_app\_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A7D024-BEA1-41B8-AC11-03712896DAB1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B7ACBF-4E0A-4F66-A216-51634B0CBF6E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="372" windowWidth="22440" windowHeight="11124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1632,19 +1632,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>出力する年月日の範囲</t>
-    <rPh sb="0" eb="2">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ネンガッピ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>開始</t>
     <rPh sb="0" eb="2">
       <t>カイシ</t>
@@ -1692,6 +1679,22 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>センケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力する年月日の範囲を指定してください</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4887,7 +4890,7 @@
   <dimension ref="A1:AY139"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB92" sqref="AB92"/>
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="10.8" x14ac:dyDescent="0.2"/>
@@ -6624,31 +6627,31 @@
     <row r="89" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B89" s="25"/>
       <c r="C89" s="18" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="T89" s="27"/>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B90" s="25"/>
       <c r="D90" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T90" s="27"/>
       <c r="AB90" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B91" s="25"/>
       <c r="T91" s="27"/>
       <c r="AB91" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B92" s="25"/>
       <c r="C92" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F92" s="42"/>
       <c r="G92" s="88"/>
@@ -6663,7 +6666,7 @@
     <row r="94" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B94" s="25"/>
       <c r="C94" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F94" s="42"/>
       <c r="G94" s="88"/>
@@ -6678,7 +6681,7 @@
     <row r="96" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B96" s="25"/>
       <c r="C96" s="136" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D96" s="137"/>
       <c r="E96" s="137"/>

--- a/_doc/成績アプリ.xlsx
+++ b/_doc/成績アプリ.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\work\tennis_app\_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B7ACBF-4E0A-4F66-A216-51634B0CBF6E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD279B6-7996-4D62-970E-EC3537B15182}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="372" windowWidth="22440" windowHeight="11124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="192" yWindow="960" windowWidth="22440" windowHeight="11124" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="要求" sheetId="1" r:id="rId1"/>
     <sheet name="テーブル" sheetId="3" r:id="rId2"/>
     <sheet name="設計" sheetId="4" r:id="rId3"/>
     <sheet name="参考URL" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="282">
   <si>
     <t>メニューボタン</t>
     <phoneticPr fontId="1"/>
@@ -1508,20 +1508,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>成績入力</t>
-    <rPh sb="0" eb="2">
-      <t>セイセキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>成績変更・削除</t>
     <rPh sb="0" eb="2">
       <t>セイセキ</t>
@@ -1617,13 +1603,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>authInput</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1696,6 +1675,31 @@
     <rPh sb="11" eb="13">
       <t>シテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大ゲーム数</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>maxGame</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input_input.html</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2790,7 +2794,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3082,18 +3086,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3148,61 +3164,58 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4434,7 +4447,7 @@
         <xdr:cNvPr id="2" name="吹き出し: 線 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FE9F080-DF5E-4D65-9ADA-412B0505C48E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F85D10C-5256-407B-BB7C-89C994A0E35E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4442,7 +4455,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1775460" y="914400"/>
+          <a:off x="1775460" y="899160"/>
           <a:ext cx="312420" cy="289560"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
@@ -4500,10 +4513,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="フローチャート: 代替処理 3">
+        <xdr:cNvPr id="3" name="フローチャート: 代替処理 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A46B46F-CCB7-46ED-9359-F27B952F0CFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAE38D9F-E716-4AC8-8B38-94EB09F9095E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4511,7 +4524,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4221480" y="1051560"/>
+          <a:off x="5227320" y="1036320"/>
           <a:ext cx="838200" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -4567,10 +4580,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="吹き出し: 線 4">
+        <xdr:cNvPr id="4" name="吹き出し: 線 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{791BEBD4-389A-440C-A291-1BE9BD402F8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4005087C-F141-4887-A92D-7D32A206B145}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4578,7 +4591,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6637020" y="891540"/>
+          <a:off x="6637020" y="876300"/>
           <a:ext cx="312420" cy="289560"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
@@ -4619,6 +4632,257 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>100505</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="グループ化 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D924C2ED-3B08-4F89-A6A6-AD6C708F6101}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3413548" y="6198704"/>
+          <a:ext cx="539327" cy="177249"/>
+          <a:chOff x="4146659" y="958741"/>
+          <a:chExt cx="493330" cy="293961"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="角丸四角形 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56CB6C9F-640A-4186-B71C-44566942B87B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4146659" y="958741"/>
+            <a:ext cx="493330" cy="293961"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="7" name="直線コネクタ 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8FE2E0B-83A4-4045-8430-AAA8FB6F94C0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4236983" y="1031328"/>
+            <a:ext cx="282465" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="8" name="直線コネクタ 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15A818C9-4C28-45D1-9523-033262480FEA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4236983" y="1103586"/>
+            <a:ext cx="282465" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="9" name="直線コネクタ 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0C80D09-B0F5-45E1-B1D7-A1DF84E55423}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4236983" y="1175845"/>
+            <a:ext cx="282465" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D90B8BA7-0F0B-4AEB-B607-6A122B682DC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4741545" y="8319135"/>
+          <a:ext cx="2767965" cy="967741"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4889,8 +5153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY139"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView showGridLines="0" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB78" sqref="AB78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="10.8" x14ac:dyDescent="0.2"/>
@@ -4939,21 +5203,21 @@
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
-      <c r="G4" s="115" t="s">
+      <c r="G4" s="119" t="s">
         <v>125</v>
       </c>
       <c r="H4" s="26"/>
-      <c r="I4" s="117" t="s">
+      <c r="I4" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="117"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
       <c r="P4" s="26"/>
-      <c r="Q4" s="117" t="s">
+      <c r="Q4" s="121" t="s">
         <v>126</v>
       </c>
       <c r="R4" s="26"/>
@@ -4966,17 +5230,17 @@
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="116"/>
+      <c r="G5" s="120"/>
       <c r="H5" s="29"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
       <c r="P5" s="29"/>
-      <c r="Q5" s="116"/>
+      <c r="Q5" s="120"/>
       <c r="R5" s="29"/>
       <c r="S5" s="29"/>
       <c r="T5" s="30"/>
@@ -5398,11 +5662,11 @@
         <v>178</v>
       </c>
       <c r="E24" s="32"/>
-      <c r="F24" s="118" t="s">
+      <c r="F24" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
       <c r="I24" s="44" t="s">
         <v>182</v>
       </c>
@@ -5924,10 +6188,10 @@
       <c r="L48" s="48"/>
       <c r="M48" s="48"/>
       <c r="N48" s="49"/>
-      <c r="O48" s="101" t="s">
+      <c r="O48" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="P48" s="102"/>
+      <c r="P48" s="106"/>
       <c r="Q48" s="26"/>
       <c r="R48" s="26"/>
       <c r="S48" s="26"/>
@@ -5967,8 +6231,8 @@
       <c r="L49" s="54"/>
       <c r="M49" s="54"/>
       <c r="N49" s="55"/>
-      <c r="O49" s="103"/>
-      <c r="P49" s="104"/>
+      <c r="O49" s="107"/>
+      <c r="P49" s="108"/>
       <c r="Q49" s="26"/>
       <c r="R49" s="26"/>
       <c r="S49" s="26"/>
@@ -5988,9 +6252,9 @@
       <c r="B50" s="25"/>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
-      <c r="E50" s="107"/>
-      <c r="F50" s="108"/>
-      <c r="G50" s="108"/>
+      <c r="E50" s="111"/>
+      <c r="F50" s="112"/>
+      <c r="G50" s="112"/>
       <c r="H50" s="57" t="s">
         <v>145</v>
       </c>
@@ -6006,8 +6270,8 @@
       <c r="L50" s="58"/>
       <c r="M50" s="58"/>
       <c r="N50" s="59"/>
-      <c r="O50" s="105"/>
-      <c r="P50" s="106"/>
+      <c r="O50" s="109"/>
+      <c r="P50" s="110"/>
       <c r="Q50" s="26"/>
       <c r="R50" s="26"/>
       <c r="S50" s="26"/>
@@ -6017,9 +6281,9 @@
       <c r="B51" s="25"/>
       <c r="C51" s="26"/>
       <c r="D51" s="26"/>
-      <c r="E51" s="109"/>
-      <c r="F51" s="110"/>
-      <c r="G51" s="110"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="114"/>
+      <c r="G51" s="114"/>
       <c r="H51" s="60"/>
       <c r="I51" s="61"/>
       <c r="J51" s="61"/>
@@ -6027,10 +6291,10 @@
       <c r="L51" s="61"/>
       <c r="M51" s="61"/>
       <c r="N51" s="62"/>
-      <c r="O51" s="111" t="s">
+      <c r="O51" s="115" t="s">
         <v>149</v>
       </c>
-      <c r="P51" s="112"/>
+      <c r="P51" s="116"/>
       <c r="Q51" s="26"/>
       <c r="R51" s="26"/>
       <c r="S51" s="26"/>
@@ -6054,8 +6318,8 @@
       <c r="L52" s="66"/>
       <c r="M52" s="66"/>
       <c r="N52" s="67"/>
-      <c r="O52" s="103"/>
-      <c r="P52" s="104"/>
+      <c r="O52" s="107"/>
+      <c r="P52" s="108"/>
       <c r="Q52" s="26"/>
       <c r="R52" s="26"/>
       <c r="S52" s="26"/>
@@ -6079,8 +6343,8 @@
       <c r="L53" s="71"/>
       <c r="M53" s="71"/>
       <c r="N53" s="72"/>
-      <c r="O53" s="113"/>
-      <c r="P53" s="114"/>
+      <c r="O53" s="117"/>
+      <c r="P53" s="118"/>
       <c r="Q53" s="26"/>
       <c r="R53" s="26"/>
       <c r="S53" s="26"/>
@@ -6255,10 +6519,10 @@
       <c r="N65" s="48"/>
       <c r="O65" s="48"/>
       <c r="P65" s="49"/>
-      <c r="Q65" s="101" t="s">
+      <c r="Q65" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="R65" s="102"/>
+      <c r="R65" s="106"/>
       <c r="T65" s="27"/>
     </row>
     <row r="66" spans="2:34" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
@@ -6282,15 +6546,15 @@
       <c r="N66" s="54"/>
       <c r="O66" s="54"/>
       <c r="P66" s="55"/>
-      <c r="Q66" s="103"/>
-      <c r="R66" s="104"/>
+      <c r="Q66" s="107"/>
+      <c r="R66" s="108"/>
       <c r="T66" s="27"/>
     </row>
     <row r="67" spans="2:34" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="25"/>
-      <c r="D67" s="107"/>
-      <c r="E67" s="108"/>
-      <c r="F67" s="108"/>
+      <c r="D67" s="111"/>
+      <c r="E67" s="112"/>
+      <c r="F67" s="112"/>
       <c r="G67" s="78"/>
       <c r="H67" s="79"/>
       <c r="I67" s="80"/>
@@ -6309,15 +6573,15 @@
       <c r="N67" s="58"/>
       <c r="O67" s="58"/>
       <c r="P67" s="59"/>
-      <c r="Q67" s="105"/>
-      <c r="R67" s="106"/>
+      <c r="Q67" s="109"/>
+      <c r="R67" s="110"/>
       <c r="T67" s="27"/>
     </row>
     <row r="68" spans="2:34" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B68" s="25"/>
-      <c r="D68" s="109"/>
-      <c r="E68" s="110"/>
-      <c r="F68" s="110"/>
+      <c r="D68" s="113"/>
+      <c r="E68" s="114"/>
+      <c r="F68" s="114"/>
       <c r="G68" s="81"/>
       <c r="H68" s="82"/>
       <c r="I68" s="83"/>
@@ -6328,10 +6592,10 @@
       <c r="N68" s="61"/>
       <c r="O68" s="61"/>
       <c r="P68" s="62"/>
-      <c r="Q68" s="111" t="s">
+      <c r="Q68" s="115" t="s">
         <v>149</v>
       </c>
-      <c r="R68" s="112"/>
+      <c r="R68" s="116"/>
       <c r="T68" s="27"/>
     </row>
     <row r="69" spans="2:34" x14ac:dyDescent="0.2">
@@ -6355,8 +6619,8 @@
       <c r="N69" s="66"/>
       <c r="O69" s="66"/>
       <c r="P69" s="67"/>
-      <c r="Q69" s="103"/>
-      <c r="R69" s="104"/>
+      <c r="Q69" s="107"/>
+      <c r="R69" s="108"/>
       <c r="T69" s="27"/>
     </row>
     <row r="70" spans="2:34" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
@@ -6380,8 +6644,8 @@
       <c r="N70" s="71"/>
       <c r="O70" s="71"/>
       <c r="P70" s="72"/>
-      <c r="Q70" s="113"/>
-      <c r="R70" s="114"/>
+      <c r="Q70" s="117"/>
+      <c r="R70" s="118"/>
       <c r="T70" s="27"/>
     </row>
     <row r="71" spans="2:34" ht="11.4" thickTop="1" x14ac:dyDescent="0.2">
@@ -6530,7 +6794,7 @@
     </row>
     <row r="82" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:28" ht="11.4" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -6541,7 +6805,7 @@
       <c r="E84" s="23"/>
       <c r="F84" s="40"/>
       <c r="G84" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H84" s="20"/>
       <c r="I84" s="20"/>
@@ -6627,31 +6891,31 @@
     <row r="89" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B89" s="25"/>
       <c r="C89" s="18" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="T89" s="27"/>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B90" s="25"/>
       <c r="D90" s="18" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="T90" s="27"/>
       <c r="AB90" s="18" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B91" s="25"/>
       <c r="T91" s="27"/>
       <c r="AB91" s="18" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B92" s="25"/>
       <c r="C92" s="18" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F92" s="42"/>
       <c r="G92" s="88"/>
@@ -6666,7 +6930,7 @@
     <row r="94" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B94" s="25"/>
       <c r="C94" s="18" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F94" s="42"/>
       <c r="G94" s="88"/>
@@ -6680,11 +6944,11 @@
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B96" s="25"/>
-      <c r="C96" s="136" t="s">
-        <v>277</v>
-      </c>
-      <c r="D96" s="137"/>
-      <c r="E96" s="137"/>
+      <c r="C96" s="103" t="s">
+        <v>274</v>
+      </c>
+      <c r="D96" s="104"/>
+      <c r="E96" s="104"/>
       <c r="T96" s="27"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
@@ -7648,225 +7912,225 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD81015E-FB69-41B6-BE92-6C3EA8E20D8D}">
-  <dimension ref="J4:AR32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7AA096-AEAC-413F-B88B-81B0FB660C69}">
+  <dimension ref="C4:BB70"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="4" spans="15:38" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="15:38" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="O5" s="128"/>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="129"/>
-      <c r="R5" s="129"/>
-      <c r="S5" s="129"/>
-      <c r="T5" s="129"/>
-      <c r="U5" s="129"/>
-      <c r="V5" s="129"/>
-      <c r="W5" s="129"/>
-      <c r="X5" s="129"/>
-      <c r="Y5" s="129"/>
-      <c r="Z5" s="129"/>
-      <c r="AA5" s="129"/>
-      <c r="AB5" s="129"/>
-      <c r="AC5" s="129"/>
-      <c r="AD5" s="129"/>
-      <c r="AE5" s="129"/>
-      <c r="AF5" s="129"/>
-      <c r="AG5" s="129"/>
-      <c r="AH5" s="129"/>
-      <c r="AI5" s="129"/>
-      <c r="AJ5" s="129"/>
-      <c r="AK5" s="129"/>
-      <c r="AL5" s="132"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="124"/>
+      <c r="R5" s="124"/>
+      <c r="S5" s="124"/>
+      <c r="T5" s="124"/>
+      <c r="U5" s="124"/>
+      <c r="V5" s="124"/>
+      <c r="W5" s="124"/>
+      <c r="X5" s="124"/>
+      <c r="Y5" s="124"/>
+      <c r="Z5" s="124"/>
+      <c r="AA5" s="124"/>
+      <c r="AB5" s="124"/>
+      <c r="AC5" s="124"/>
+      <c r="AD5" s="124"/>
+      <c r="AE5" s="124"/>
+      <c r="AF5" s="124"/>
+      <c r="AG5" s="124"/>
+      <c r="AH5" s="124"/>
+      <c r="AI5" s="124"/>
+      <c r="AJ5" s="124"/>
+      <c r="AK5" s="124"/>
+      <c r="AL5" s="127"/>
     </row>
     <row r="6" spans="15:38" x14ac:dyDescent="0.2">
-      <c r="O6" s="130"/>
-      <c r="P6" s="131"/>
-      <c r="Q6" s="131"/>
-      <c r="R6" s="131"/>
-      <c r="S6" s="131"/>
-      <c r="T6" s="131"/>
-      <c r="U6" s="131"/>
-      <c r="V6" s="131"/>
-      <c r="W6" s="131"/>
-      <c r="X6" s="131"/>
-      <c r="Y6" s="131"/>
-      <c r="Z6" s="131"/>
-      <c r="AA6" s="131"/>
-      <c r="AB6" s="131"/>
-      <c r="AC6" s="131"/>
-      <c r="AD6" s="131"/>
-      <c r="AE6" s="131"/>
-      <c r="AF6" s="131"/>
-      <c r="AG6" s="131"/>
-      <c r="AH6" s="131"/>
-      <c r="AI6" s="131"/>
-      <c r="AJ6" s="131"/>
-      <c r="AK6" s="131"/>
-      <c r="AL6" s="133"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="126"/>
+      <c r="AB6" s="126"/>
+      <c r="AC6" s="126"/>
+      <c r="AD6" s="126"/>
+      <c r="AE6" s="126"/>
+      <c r="AF6" s="126"/>
+      <c r="AG6" s="126"/>
+      <c r="AH6" s="126"/>
+      <c r="AI6" s="126"/>
+      <c r="AJ6" s="126"/>
+      <c r="AK6" s="126"/>
+      <c r="AL6" s="128"/>
     </row>
     <row r="7" spans="15:38" x14ac:dyDescent="0.2">
-      <c r="O7" s="134" t="s">
-        <v>267</v>
-      </c>
-      <c r="P7" s="135"/>
-      <c r="Q7" s="135"/>
-      <c r="R7" s="135"/>
-      <c r="S7" s="135"/>
-      <c r="T7" s="135"/>
-      <c r="U7" s="135"/>
-      <c r="V7" s="135"/>
-      <c r="W7" s="135"/>
-      <c r="X7" s="135"/>
-      <c r="Y7" s="135"/>
-      <c r="Z7" s="135"/>
-      <c r="AA7" s="135"/>
-      <c r="AB7" s="135"/>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="98"/>
-      <c r="AF7" s="98"/>
-      <c r="AG7" s="98"/>
-      <c r="AH7" s="98"/>
-      <c r="AI7" s="98"/>
-      <c r="AJ7" s="98"/>
-      <c r="AK7" s="98"/>
-      <c r="AL7" s="99"/>
+      <c r="O7" s="129" t="s">
+        <v>265</v>
+      </c>
+      <c r="P7" s="130"/>
+      <c r="Q7" s="130"/>
+      <c r="R7" s="130"/>
+      <c r="S7" s="130"/>
+      <c r="T7" s="130"/>
+      <c r="U7" s="130"/>
+      <c r="V7" s="130"/>
+      <c r="W7" s="130"/>
+      <c r="X7" s="130"/>
+      <c r="Y7" s="130"/>
+      <c r="Z7" s="130"/>
+      <c r="AA7" s="130"/>
+      <c r="AB7" s="130"/>
+      <c r="AC7" s="101"/>
+      <c r="AD7" s="101"/>
+      <c r="AE7" s="101"/>
+      <c r="AF7" s="101"/>
+      <c r="AG7" s="101"/>
+      <c r="AH7" s="101"/>
+      <c r="AI7" s="101"/>
+      <c r="AJ7" s="101"/>
+      <c r="AK7" s="101"/>
+      <c r="AL7" s="102"/>
     </row>
     <row r="8" spans="15:38" x14ac:dyDescent="0.2">
-      <c r="O8" s="134"/>
-      <c r="P8" s="135"/>
-      <c r="Q8" s="135"/>
-      <c r="R8" s="135"/>
-      <c r="S8" s="135"/>
-      <c r="T8" s="135"/>
-      <c r="U8" s="135"/>
-      <c r="V8" s="135"/>
-      <c r="W8" s="135"/>
-      <c r="X8" s="135"/>
-      <c r="Y8" s="135"/>
-      <c r="Z8" s="135"/>
-      <c r="AA8" s="135"/>
-      <c r="AB8" s="135"/>
-      <c r="AC8" s="98"/>
-      <c r="AD8" s="98"/>
-      <c r="AE8" s="98"/>
-      <c r="AF8" s="98"/>
-      <c r="AG8" s="98"/>
-      <c r="AH8" s="98"/>
-      <c r="AI8" s="98"/>
-      <c r="AJ8" s="98"/>
-      <c r="AK8" s="98"/>
-      <c r="AL8" s="99"/>
+      <c r="O8" s="129"/>
+      <c r="P8" s="130"/>
+      <c r="Q8" s="130"/>
+      <c r="R8" s="130"/>
+      <c r="S8" s="130"/>
+      <c r="T8" s="130"/>
+      <c r="U8" s="130"/>
+      <c r="V8" s="130"/>
+      <c r="W8" s="130"/>
+      <c r="X8" s="130"/>
+      <c r="Y8" s="130"/>
+      <c r="Z8" s="130"/>
+      <c r="AA8" s="130"/>
+      <c r="AB8" s="130"/>
+      <c r="AC8" s="101"/>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="101"/>
+      <c r="AF8" s="101"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="101"/>
+      <c r="AI8" s="101"/>
+      <c r="AJ8" s="101"/>
+      <c r="AK8" s="101"/>
+      <c r="AL8" s="102"/>
     </row>
     <row r="9" spans="15:38" x14ac:dyDescent="0.2">
-      <c r="O9" s="97"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="98"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="98"/>
-      <c r="V9" s="98"/>
-      <c r="W9" s="98"/>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="98"/>
-      <c r="Z9" s="98"/>
-      <c r="AA9" s="98"/>
-      <c r="AB9" s="98"/>
-      <c r="AC9" s="98"/>
-      <c r="AD9" s="98"/>
-      <c r="AE9" s="98"/>
-      <c r="AF9" s="98"/>
-      <c r="AG9" s="98"/>
-      <c r="AH9" s="98"/>
-      <c r="AI9" s="98"/>
-      <c r="AJ9" s="98"/>
-      <c r="AK9" s="98"/>
-      <c r="AL9" s="99"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="101"/>
+      <c r="U9" s="101"/>
+      <c r="V9" s="101"/>
+      <c r="W9" s="101"/>
+      <c r="X9" s="101"/>
+      <c r="Y9" s="101"/>
+      <c r="Z9" s="101"/>
+      <c r="AA9" s="101"/>
+      <c r="AB9" s="101"/>
+      <c r="AC9" s="101"/>
+      <c r="AD9" s="101"/>
+      <c r="AE9" s="101"/>
+      <c r="AF9" s="101"/>
+      <c r="AG9" s="101"/>
+      <c r="AH9" s="101"/>
+      <c r="AI9" s="101"/>
+      <c r="AJ9" s="101"/>
+      <c r="AK9" s="101"/>
+      <c r="AL9" s="102"/>
     </row>
     <row r="10" spans="15:38" x14ac:dyDescent="0.2">
-      <c r="O10" s="97"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="98"/>
-      <c r="S10" s="98"/>
-      <c r="T10" s="98"/>
-      <c r="U10" s="98"/>
-      <c r="V10" s="98"/>
-      <c r="W10" s="98"/>
-      <c r="X10" s="98"/>
-      <c r="Y10" s="98"/>
-      <c r="Z10" s="98"/>
-      <c r="AA10" s="98"/>
-      <c r="AB10" s="98"/>
-      <c r="AC10" s="98"/>
-      <c r="AD10" s="98"/>
-      <c r="AE10" s="98"/>
-      <c r="AF10" s="98"/>
-      <c r="AG10" s="98"/>
-      <c r="AH10" s="98"/>
-      <c r="AI10" s="98"/>
-      <c r="AJ10" s="98"/>
-      <c r="AK10" s="98"/>
-      <c r="AL10" s="99"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="101"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="101"/>
+      <c r="V10" s="101"/>
+      <c r="W10" s="101"/>
+      <c r="X10" s="101"/>
+      <c r="Y10" s="101"/>
+      <c r="Z10" s="101"/>
+      <c r="AA10" s="101"/>
+      <c r="AB10" s="101"/>
+      <c r="AC10" s="101"/>
+      <c r="AD10" s="101"/>
+      <c r="AE10" s="101"/>
+      <c r="AF10" s="101"/>
+      <c r="AG10" s="101"/>
+      <c r="AH10" s="101"/>
+      <c r="AI10" s="101"/>
+      <c r="AJ10" s="101"/>
+      <c r="AK10" s="101"/>
+      <c r="AL10" s="102"/>
     </row>
     <row r="11" spans="15:38" x14ac:dyDescent="0.2">
-      <c r="O11" s="97"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="98"/>
-      <c r="R11" s="98"/>
-      <c r="S11" s="98"/>
-      <c r="T11" s="98"/>
-      <c r="U11" s="98"/>
-      <c r="V11" s="98"/>
-      <c r="W11" s="98"/>
-      <c r="X11" s="98"/>
-      <c r="Y11" s="98"/>
-      <c r="Z11" s="98"/>
-      <c r="AA11" s="98"/>
-      <c r="AB11" s="98"/>
-      <c r="AC11" s="98"/>
-      <c r="AD11" s="98"/>
-      <c r="AE11" s="98"/>
-      <c r="AF11" s="98"/>
-      <c r="AG11" s="98"/>
-      <c r="AH11" s="98"/>
-      <c r="AI11" s="98"/>
-      <c r="AJ11" s="98"/>
-      <c r="AK11" s="98"/>
-      <c r="AL11" s="99"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="101"/>
+      <c r="W11" s="101"/>
+      <c r="X11" s="101"/>
+      <c r="Y11" s="101"/>
+      <c r="Z11" s="101"/>
+      <c r="AA11" s="101"/>
+      <c r="AB11" s="101"/>
+      <c r="AC11" s="101"/>
+      <c r="AD11" s="101"/>
+      <c r="AE11" s="101"/>
+      <c r="AF11" s="101"/>
+      <c r="AG11" s="101"/>
+      <c r="AH11" s="101"/>
+      <c r="AI11" s="101"/>
+      <c r="AJ11" s="101"/>
+      <c r="AK11" s="101"/>
+      <c r="AL11" s="102"/>
     </row>
     <row r="12" spans="15:38" x14ac:dyDescent="0.2">
-      <c r="O12" s="97"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="98"/>
-      <c r="S12" s="98"/>
-      <c r="T12" s="98"/>
-      <c r="U12" s="98"/>
-      <c r="V12" s="98"/>
-      <c r="W12" s="98"/>
-      <c r="X12" s="98"/>
-      <c r="Y12" s="98"/>
-      <c r="Z12" s="98"/>
-      <c r="AA12" s="98"/>
-      <c r="AB12" s="98"/>
-      <c r="AC12" s="98"/>
-      <c r="AD12" s="98"/>
-      <c r="AE12" s="98"/>
-      <c r="AF12" s="98"/>
-      <c r="AG12" s="98"/>
-      <c r="AH12" s="98"/>
-      <c r="AI12" s="98"/>
-      <c r="AJ12" s="98"/>
-      <c r="AK12" s="98"/>
-      <c r="AL12" s="99"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="101"/>
+      <c r="R12" s="101"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="101"/>
+      <c r="U12" s="101"/>
+      <c r="V12" s="101"/>
+      <c r="W12" s="101"/>
+      <c r="X12" s="101"/>
+      <c r="Y12" s="101"/>
+      <c r="Z12" s="101"/>
+      <c r="AA12" s="101"/>
+      <c r="AB12" s="101"/>
+      <c r="AC12" s="101"/>
+      <c r="AD12" s="101"/>
+      <c r="AE12" s="101"/>
+      <c r="AF12" s="101"/>
+      <c r="AG12" s="101"/>
+      <c r="AH12" s="101"/>
+      <c r="AI12" s="101"/>
+      <c r="AJ12" s="101"/>
+      <c r="AK12" s="101"/>
+      <c r="AL12" s="102"/>
     </row>
     <row r="15" spans="15:38" x14ac:dyDescent="0.2">
       <c r="O15" t="s">
@@ -7874,464 +8138,1421 @@
       </c>
     </row>
     <row r="16" spans="15:38" x14ac:dyDescent="0.2">
-      <c r="O16" s="100" t="s">
+      <c r="O16" s="97" t="s">
+        <v>219</v>
+      </c>
+      <c r="P16" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="10:44" x14ac:dyDescent="0.2">
+      <c r="O17" s="97" t="s">
+        <v>219</v>
+      </c>
+      <c r="P17" t="s">
         <v>255</v>
       </c>
-      <c r="P16" t="s">
+      <c r="AB17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="10:44" x14ac:dyDescent="0.2">
+      <c r="O18" s="97" t="s">
+        <v>219</v>
+      </c>
+      <c r="P18" t="s">
         <v>256</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AB18" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="10:44" x14ac:dyDescent="0.2">
-      <c r="O17" s="100" t="s">
-        <v>255</v>
-      </c>
-      <c r="P17" t="s">
+    <row r="19" spans="10:44" x14ac:dyDescent="0.2">
+      <c r="O19" s="97" t="s">
+        <v>219</v>
+      </c>
+      <c r="P19" t="s">
         <v>257</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AB19" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="10:44" x14ac:dyDescent="0.2">
-      <c r="O18" s="100" t="s">
-        <v>255</v>
-      </c>
-      <c r="P18" t="s">
+    <row r="20" spans="10:44" x14ac:dyDescent="0.2">
+      <c r="O20" s="97" t="s">
+        <v>219</v>
+      </c>
+      <c r="P20" t="s">
         <v>258</v>
       </c>
-      <c r="AB18" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="19" spans="10:44" x14ac:dyDescent="0.2">
-      <c r="O19" s="100" t="s">
-        <v>255</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="AB20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="10:44" x14ac:dyDescent="0.2">
+      <c r="O21" s="97" t="s">
+        <v>219</v>
+      </c>
+      <c r="P21" t="s">
         <v>259</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AB21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="10:44" x14ac:dyDescent="0.2">
+      <c r="J23" s="134" t="s">
+        <v>267</v>
+      </c>
+      <c r="K23" s="135"/>
+      <c r="L23" s="131" t="s">
+        <v>268</v>
+      </c>
+      <c r="M23" s="132"/>
+      <c r="N23" s="132"/>
+      <c r="O23" s="132"/>
+      <c r="P23" s="132"/>
+      <c r="Q23" s="132"/>
+      <c r="R23" s="132"/>
+      <c r="S23" s="132"/>
+      <c r="T23" s="132"/>
+      <c r="U23" s="133"/>
+      <c r="V23" s="134" t="s">
+        <v>47</v>
+      </c>
+      <c r="W23" s="135"/>
+      <c r="X23" s="135"/>
+      <c r="Y23" s="135"/>
+      <c r="Z23" s="135"/>
+      <c r="AA23" s="135"/>
+      <c r="AB23" s="135"/>
+      <c r="AC23" s="135"/>
+      <c r="AD23" s="135"/>
+      <c r="AE23" s="135"/>
+      <c r="AF23" s="135"/>
+      <c r="AG23" s="135"/>
+      <c r="AH23" s="135"/>
+      <c r="AI23" s="135"/>
+      <c r="AJ23" s="135"/>
+      <c r="AK23" s="135"/>
+      <c r="AL23" s="135"/>
+      <c r="AM23" s="135"/>
+      <c r="AN23" s="135"/>
+      <c r="AO23" s="135"/>
+      <c r="AP23" s="135"/>
+      <c r="AQ23" s="135"/>
+      <c r="AR23" s="138"/>
+    </row>
+    <row r="24" spans="10:44" x14ac:dyDescent="0.2">
+      <c r="J24" s="136">
+        <v>1</v>
+      </c>
+      <c r="K24" s="137"/>
+      <c r="L24" s="131" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="20" spans="10:44" x14ac:dyDescent="0.2">
-      <c r="O20" s="100" t="s">
-        <v>255</v>
-      </c>
-      <c r="P20" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="21" spans="10:44" x14ac:dyDescent="0.2">
-      <c r="O21" s="100" t="s">
-        <v>255</v>
-      </c>
-      <c r="P21" t="s">
-        <v>261</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="23" spans="10:44" x14ac:dyDescent="0.2">
-      <c r="J23" s="125" t="s">
+      <c r="M24" s="132"/>
+      <c r="N24" s="132"/>
+      <c r="O24" s="132"/>
+      <c r="P24" s="132"/>
+      <c r="Q24" s="132"/>
+      <c r="R24" s="132"/>
+      <c r="S24" s="132"/>
+      <c r="T24" s="132"/>
+      <c r="U24" s="133"/>
+      <c r="V24" s="136"/>
+      <c r="W24" s="137"/>
+      <c r="X24" s="137"/>
+      <c r="Y24" s="137"/>
+      <c r="Z24" s="137"/>
+      <c r="AA24" s="137"/>
+      <c r="AB24" s="137"/>
+      <c r="AC24" s="137"/>
+      <c r="AD24" s="137"/>
+      <c r="AE24" s="137"/>
+      <c r="AF24" s="137"/>
+      <c r="AG24" s="137"/>
+      <c r="AH24" s="137"/>
+      <c r="AI24" s="137"/>
+      <c r="AJ24" s="137"/>
+      <c r="AK24" s="137"/>
+      <c r="AL24" s="137"/>
+      <c r="AM24" s="137"/>
+      <c r="AN24" s="137"/>
+      <c r="AO24" s="137"/>
+      <c r="AP24" s="137"/>
+      <c r="AQ24" s="137"/>
+      <c r="AR24" s="139"/>
+    </row>
+    <row r="25" spans="10:44" x14ac:dyDescent="0.2">
+      <c r="J25" s="136">
+        <v>2</v>
+      </c>
+      <c r="K25" s="137"/>
+      <c r="L25" s="131" t="s">
         <v>269</v>
       </c>
-      <c r="K23" s="126"/>
-      <c r="L23" s="121" t="s">
+      <c r="M25" s="132"/>
+      <c r="N25" s="132"/>
+      <c r="O25" s="132"/>
+      <c r="P25" s="132"/>
+      <c r="Q25" s="132"/>
+      <c r="R25" s="132"/>
+      <c r="S25" s="132"/>
+      <c r="T25" s="132"/>
+      <c r="U25" s="133"/>
+      <c r="V25" s="136" t="s">
         <v>270</v>
       </c>
-      <c r="M23" s="122"/>
-      <c r="N23" s="122"/>
-      <c r="O23" s="122"/>
-      <c r="P23" s="122"/>
-      <c r="Q23" s="122"/>
-      <c r="R23" s="122"/>
-      <c r="S23" s="122"/>
-      <c r="T23" s="122"/>
-      <c r="U23" s="123"/>
-      <c r="V23" s="125" t="s">
-        <v>271</v>
-      </c>
-      <c r="W23" s="126"/>
-      <c r="X23" s="126"/>
-      <c r="Y23" s="126"/>
-      <c r="Z23" s="126"/>
-      <c r="AA23" s="126"/>
-      <c r="AB23" s="126"/>
-      <c r="AC23" s="126"/>
-      <c r="AD23" s="126"/>
-      <c r="AE23" s="126"/>
-      <c r="AF23" s="126"/>
-      <c r="AG23" s="126"/>
-      <c r="AH23" s="126"/>
-      <c r="AI23" s="126"/>
-      <c r="AJ23" s="126"/>
-      <c r="AK23" s="126"/>
-      <c r="AL23" s="126"/>
-      <c r="AM23" s="126"/>
-      <c r="AN23" s="126"/>
-      <c r="AO23" s="126"/>
-      <c r="AP23" s="126"/>
-      <c r="AQ23" s="126"/>
-      <c r="AR23" s="127"/>
-    </row>
-    <row r="24" spans="10:44" x14ac:dyDescent="0.2">
-      <c r="J24" s="119">
+      <c r="W25" s="137"/>
+      <c r="X25" s="137"/>
+      <c r="Y25" s="137"/>
+      <c r="Z25" s="137"/>
+      <c r="AA25" s="137"/>
+      <c r="AB25" s="137"/>
+      <c r="AC25" s="137"/>
+      <c r="AD25" s="137"/>
+      <c r="AE25" s="137"/>
+      <c r="AF25" s="137"/>
+      <c r="AG25" s="137"/>
+      <c r="AH25" s="137"/>
+      <c r="AI25" s="137"/>
+      <c r="AJ25" s="137"/>
+      <c r="AK25" s="137"/>
+      <c r="AL25" s="137"/>
+      <c r="AM25" s="137"/>
+      <c r="AN25" s="137"/>
+      <c r="AO25" s="137"/>
+      <c r="AP25" s="137"/>
+      <c r="AQ25" s="137"/>
+      <c r="AR25" s="139"/>
+    </row>
+    <row r="26" spans="10:44" x14ac:dyDescent="0.2">
+      <c r="J26" s="136"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="131"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="132"/>
+      <c r="O26" s="132"/>
+      <c r="P26" s="132"/>
+      <c r="Q26" s="132"/>
+      <c r="R26" s="132"/>
+      <c r="S26" s="132"/>
+      <c r="T26" s="132"/>
+      <c r="U26" s="133"/>
+      <c r="V26" s="136"/>
+      <c r="W26" s="137"/>
+      <c r="X26" s="137"/>
+      <c r="Y26" s="137"/>
+      <c r="Z26" s="137"/>
+      <c r="AA26" s="137"/>
+      <c r="AB26" s="137"/>
+      <c r="AC26" s="137"/>
+      <c r="AD26" s="137"/>
+      <c r="AE26" s="137"/>
+      <c r="AF26" s="137"/>
+      <c r="AG26" s="137"/>
+      <c r="AH26" s="137"/>
+      <c r="AI26" s="137"/>
+      <c r="AJ26" s="137"/>
+      <c r="AK26" s="137"/>
+      <c r="AL26" s="137"/>
+      <c r="AM26" s="137"/>
+      <c r="AN26" s="137"/>
+      <c r="AO26" s="137"/>
+      <c r="AP26" s="137"/>
+      <c r="AQ26" s="137"/>
+      <c r="AR26" s="139"/>
+    </row>
+    <row r="27" spans="10:44" x14ac:dyDescent="0.2">
+      <c r="J27" s="136"/>
+      <c r="K27" s="137"/>
+      <c r="L27" s="131"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="132"/>
+      <c r="P27" s="132"/>
+      <c r="Q27" s="132"/>
+      <c r="R27" s="132"/>
+      <c r="S27" s="132"/>
+      <c r="T27" s="132"/>
+      <c r="U27" s="133"/>
+      <c r="V27" s="136"/>
+      <c r="W27" s="137"/>
+      <c r="X27" s="137"/>
+      <c r="Y27" s="137"/>
+      <c r="Z27" s="137"/>
+      <c r="AA27" s="137"/>
+      <c r="AB27" s="137"/>
+      <c r="AC27" s="137"/>
+      <c r="AD27" s="137"/>
+      <c r="AE27" s="137"/>
+      <c r="AF27" s="137"/>
+      <c r="AG27" s="137"/>
+      <c r="AH27" s="137"/>
+      <c r="AI27" s="137"/>
+      <c r="AJ27" s="137"/>
+      <c r="AK27" s="137"/>
+      <c r="AL27" s="137"/>
+      <c r="AM27" s="137"/>
+      <c r="AN27" s="137"/>
+      <c r="AO27" s="137"/>
+      <c r="AP27" s="137"/>
+      <c r="AQ27" s="137"/>
+      <c r="AR27" s="139"/>
+    </row>
+    <row r="28" spans="10:44" x14ac:dyDescent="0.2">
+      <c r="J28" s="136"/>
+      <c r="K28" s="137"/>
+      <c r="L28" s="131"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="132"/>
+      <c r="P28" s="132"/>
+      <c r="Q28" s="132"/>
+      <c r="R28" s="132"/>
+      <c r="S28" s="132"/>
+      <c r="T28" s="132"/>
+      <c r="U28" s="133"/>
+      <c r="V28" s="136"/>
+      <c r="W28" s="137"/>
+      <c r="X28" s="137"/>
+      <c r="Y28" s="137"/>
+      <c r="Z28" s="137"/>
+      <c r="AA28" s="137"/>
+      <c r="AB28" s="137"/>
+      <c r="AC28" s="137"/>
+      <c r="AD28" s="137"/>
+      <c r="AE28" s="137"/>
+      <c r="AF28" s="137"/>
+      <c r="AG28" s="137"/>
+      <c r="AH28" s="137"/>
+      <c r="AI28" s="137"/>
+      <c r="AJ28" s="137"/>
+      <c r="AK28" s="137"/>
+      <c r="AL28" s="137"/>
+      <c r="AM28" s="137"/>
+      <c r="AN28" s="137"/>
+      <c r="AO28" s="137"/>
+      <c r="AP28" s="137"/>
+      <c r="AQ28" s="137"/>
+      <c r="AR28" s="139"/>
+    </row>
+    <row r="29" spans="10:44" x14ac:dyDescent="0.2">
+      <c r="J29" s="136"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="131"/>
+      <c r="M29" s="132"/>
+      <c r="N29" s="132"/>
+      <c r="O29" s="132"/>
+      <c r="P29" s="132"/>
+      <c r="Q29" s="132"/>
+      <c r="R29" s="132"/>
+      <c r="S29" s="132"/>
+      <c r="T29" s="132"/>
+      <c r="U29" s="133"/>
+      <c r="V29" s="136"/>
+      <c r="W29" s="137"/>
+      <c r="X29" s="137"/>
+      <c r="Y29" s="137"/>
+      <c r="Z29" s="137"/>
+      <c r="AA29" s="137"/>
+      <c r="AB29" s="137"/>
+      <c r="AC29" s="137"/>
+      <c r="AD29" s="137"/>
+      <c r="AE29" s="137"/>
+      <c r="AF29" s="137"/>
+      <c r="AG29" s="137"/>
+      <c r="AH29" s="137"/>
+      <c r="AI29" s="137"/>
+      <c r="AJ29" s="137"/>
+      <c r="AK29" s="137"/>
+      <c r="AL29" s="137"/>
+      <c r="AM29" s="137"/>
+      <c r="AN29" s="137"/>
+      <c r="AO29" s="137"/>
+      <c r="AP29" s="137"/>
+      <c r="AQ29" s="137"/>
+      <c r="AR29" s="139"/>
+    </row>
+    <row r="30" spans="10:44" x14ac:dyDescent="0.2">
+      <c r="J30" s="136"/>
+      <c r="K30" s="137"/>
+      <c r="L30" s="131"/>
+      <c r="M30" s="132"/>
+      <c r="N30" s="132"/>
+      <c r="O30" s="132"/>
+      <c r="P30" s="132"/>
+      <c r="Q30" s="132"/>
+      <c r="R30" s="132"/>
+      <c r="S30" s="132"/>
+      <c r="T30" s="132"/>
+      <c r="U30" s="133"/>
+      <c r="V30" s="136"/>
+      <c r="W30" s="137"/>
+      <c r="X30" s="137"/>
+      <c r="Y30" s="137"/>
+      <c r="Z30" s="137"/>
+      <c r="AA30" s="137"/>
+      <c r="AB30" s="137"/>
+      <c r="AC30" s="137"/>
+      <c r="AD30" s="137"/>
+      <c r="AE30" s="137"/>
+      <c r="AF30" s="137"/>
+      <c r="AG30" s="137"/>
+      <c r="AH30" s="137"/>
+      <c r="AI30" s="137"/>
+      <c r="AJ30" s="137"/>
+      <c r="AK30" s="137"/>
+      <c r="AL30" s="137"/>
+      <c r="AM30" s="137"/>
+      <c r="AN30" s="137"/>
+      <c r="AO30" s="137"/>
+      <c r="AP30" s="137"/>
+      <c r="AQ30" s="137"/>
+      <c r="AR30" s="139"/>
+    </row>
+    <row r="31" spans="10:44" x14ac:dyDescent="0.2">
+      <c r="J31" s="136"/>
+      <c r="K31" s="137"/>
+      <c r="L31" s="131"/>
+      <c r="M31" s="132"/>
+      <c r="N31" s="132"/>
+      <c r="O31" s="132"/>
+      <c r="P31" s="132"/>
+      <c r="Q31" s="132"/>
+      <c r="R31" s="132"/>
+      <c r="S31" s="132"/>
+      <c r="T31" s="132"/>
+      <c r="U31" s="133"/>
+      <c r="V31" s="136"/>
+      <c r="W31" s="137"/>
+      <c r="X31" s="137"/>
+      <c r="Y31" s="137"/>
+      <c r="Z31" s="137"/>
+      <c r="AA31" s="137"/>
+      <c r="AB31" s="137"/>
+      <c r="AC31" s="137"/>
+      <c r="AD31" s="137"/>
+      <c r="AE31" s="137"/>
+      <c r="AF31" s="137"/>
+      <c r="AG31" s="137"/>
+      <c r="AH31" s="137"/>
+      <c r="AI31" s="137"/>
+      <c r="AJ31" s="137"/>
+      <c r="AK31" s="137"/>
+      <c r="AL31" s="137"/>
+      <c r="AM31" s="137"/>
+      <c r="AN31" s="137"/>
+      <c r="AO31" s="137"/>
+      <c r="AP31" s="137"/>
+      <c r="AQ31" s="137"/>
+      <c r="AR31" s="139"/>
+    </row>
+    <row r="32" spans="10:44" x14ac:dyDescent="0.2">
+      <c r="J32" s="136"/>
+      <c r="K32" s="137"/>
+      <c r="L32" s="131"/>
+      <c r="M32" s="132"/>
+      <c r="N32" s="132"/>
+      <c r="O32" s="132"/>
+      <c r="P32" s="132"/>
+      <c r="Q32" s="132"/>
+      <c r="R32" s="132"/>
+      <c r="S32" s="132"/>
+      <c r="T32" s="132"/>
+      <c r="U32" s="133"/>
+      <c r="V32" s="136"/>
+      <c r="W32" s="137"/>
+      <c r="X32" s="137"/>
+      <c r="Y32" s="137"/>
+      <c r="Z32" s="137"/>
+      <c r="AA32" s="137"/>
+      <c r="AB32" s="137"/>
+      <c r="AC32" s="137"/>
+      <c r="AD32" s="137"/>
+      <c r="AE32" s="137"/>
+      <c r="AF32" s="137"/>
+      <c r="AG32" s="137"/>
+      <c r="AH32" s="137"/>
+      <c r="AI32" s="137"/>
+      <c r="AJ32" s="137"/>
+      <c r="AK32" s="137"/>
+      <c r="AL32" s="137"/>
+      <c r="AM32" s="137"/>
+      <c r="AN32" s="137"/>
+      <c r="AO32" s="137"/>
+      <c r="AP32" s="137"/>
+      <c r="AQ32" s="137"/>
+      <c r="AR32" s="139"/>
+    </row>
+    <row r="35" spans="3:39" s="140" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="140" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="3:39" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="3:39" s="18" customFormat="1" ht="10.8" x14ac:dyDescent="0.2">
+      <c r="U37" s="19"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="20"/>
+      <c r="AA37" s="20"/>
+      <c r="AB37" s="20"/>
+      <c r="AC37" s="20"/>
+      <c r="AD37" s="20"/>
+      <c r="AE37" s="20"/>
+      <c r="AF37" s="20"/>
+      <c r="AG37" s="20"/>
+      <c r="AH37" s="20"/>
+      <c r="AI37" s="20"/>
+      <c r="AJ37" s="20"/>
+      <c r="AK37" s="20"/>
+      <c r="AL37" s="20"/>
+      <c r="AM37" s="73"/>
+    </row>
+    <row r="38" spans="3:39" s="18" customFormat="1" ht="10.8" x14ac:dyDescent="0.2">
+      <c r="U38" s="25"/>
+      <c r="V38" s="26"/>
+      <c r="W38" s="26"/>
+      <c r="X38" s="26"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="26"/>
+      <c r="AE38" s="26"/>
+      <c r="AF38" s="26"/>
+      <c r="AG38" s="26"/>
+      <c r="AH38" s="26"/>
+      <c r="AI38" s="26"/>
+      <c r="AJ38" s="26"/>
+      <c r="AK38" s="26"/>
+      <c r="AL38" s="26"/>
+      <c r="AM38" s="27"/>
+    </row>
+    <row r="39" spans="3:39" s="18" customFormat="1" ht="10.8" x14ac:dyDescent="0.2">
+      <c r="U39" s="28"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="29"/>
+      <c r="AB39" s="29"/>
+      <c r="AC39" s="29"/>
+      <c r="AD39" s="29"/>
+      <c r="AE39" s="29"/>
+      <c r="AF39" s="29"/>
+      <c r="AG39" s="29"/>
+      <c r="AH39" s="29"/>
+      <c r="AI39" s="29"/>
+      <c r="AJ39" s="29"/>
+      <c r="AK39" s="29"/>
+      <c r="AL39" s="29"/>
+      <c r="AM39" s="30"/>
+    </row>
+    <row r="40" spans="3:39" s="18" customFormat="1" ht="10.8" x14ac:dyDescent="0.2">
+      <c r="U40" s="25"/>
+      <c r="V40" s="26"/>
+      <c r="W40" s="26"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="26"/>
+      <c r="AA40" s="26"/>
+      <c r="AB40" s="26"/>
+      <c r="AC40" s="26"/>
+      <c r="AD40" s="26"/>
+      <c r="AE40" s="26"/>
+      <c r="AF40" s="26"/>
+      <c r="AG40" s="26"/>
+      <c r="AH40" s="26"/>
+      <c r="AI40" s="26"/>
+      <c r="AJ40" s="26"/>
+      <c r="AK40" s="26"/>
+      <c r="AL40" s="26"/>
+      <c r="AM40" s="27"/>
+    </row>
+    <row r="41" spans="3:39" s="18" customFormat="1" ht="10.8" x14ac:dyDescent="0.2">
+      <c r="U41" s="25"/>
+      <c r="W41" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="X41" s="26"/>
+      <c r="Y41" s="26"/>
+      <c r="Z41" s="26"/>
+      <c r="AA41" s="26"/>
+      <c r="AB41" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC41" s="26"/>
+      <c r="AD41" s="26"/>
+      <c r="AE41" s="26"/>
+      <c r="AF41" s="26"/>
+      <c r="AG41" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM41" s="27"/>
+    </row>
+    <row r="42" spans="3:39" s="18" customFormat="1" ht="10.8" x14ac:dyDescent="0.2">
+      <c r="U42" s="25"/>
+      <c r="W42" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z42" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM42" s="27"/>
+    </row>
+    <row r="43" spans="3:39" s="18" customFormat="1" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U43" s="25"/>
+      <c r="AM43" s="27"/>
+    </row>
+    <row r="44" spans="3:39" s="18" customFormat="1" ht="11.4" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="U44" s="25"/>
+      <c r="W44" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="X44" s="46"/>
+      <c r="Y44" s="46"/>
+      <c r="Z44" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA44" s="75"/>
+      <c r="AB44" s="46"/>
+      <c r="AC44" s="47"/>
+      <c r="AD44" s="48"/>
+      <c r="AE44" s="48"/>
+      <c r="AF44" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG44" s="48"/>
+      <c r="AH44" s="48"/>
+      <c r="AI44" s="49"/>
+      <c r="AJ44" s="105" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK44" s="106"/>
+      <c r="AM44" s="27"/>
+    </row>
+    <row r="45" spans="3:39" s="18" customFormat="1" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U45" s="25"/>
+      <c r="W45" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="X45" s="52"/>
+      <c r="Y45" s="52"/>
+      <c r="Z45" s="76" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA45" s="77"/>
+      <c r="AB45" s="52"/>
+      <c r="AC45" s="53"/>
+      <c r="AD45" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE45" s="54"/>
+      <c r="AF45" s="54"/>
+      <c r="AG45" s="54"/>
+      <c r="AH45" s="54"/>
+      <c r="AI45" s="55"/>
+      <c r="AJ45" s="107"/>
+      <c r="AK45" s="108"/>
+      <c r="AM45" s="27"/>
+    </row>
+    <row r="46" spans="3:39" s="18" customFormat="1" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U46" s="25"/>
+      <c r="W46" s="111"/>
+      <c r="X46" s="112"/>
+      <c r="Y46" s="112"/>
+      <c r="Z46" s="78"/>
+      <c r="AA46" s="79"/>
+      <c r="AB46" s="98"/>
+      <c r="AC46" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD46" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE46" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF46" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG46" s="58"/>
+      <c r="AH46" s="58"/>
+      <c r="AI46" s="59"/>
+      <c r="AJ46" s="109"/>
+      <c r="AK46" s="110"/>
+      <c r="AM46" s="27"/>
+    </row>
+    <row r="47" spans="3:39" s="18" customFormat="1" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U47" s="25"/>
+      <c r="W47" s="113"/>
+      <c r="X47" s="114"/>
+      <c r="Y47" s="114"/>
+      <c r="Z47" s="81"/>
+      <c r="AA47" s="82"/>
+      <c r="AB47" s="99"/>
+      <c r="AC47" s="60"/>
+      <c r="AD47" s="61"/>
+      <c r="AE47" s="61"/>
+      <c r="AF47" s="61"/>
+      <c r="AG47" s="61"/>
+      <c r="AH47" s="61"/>
+      <c r="AI47" s="62"/>
+      <c r="AJ47" s="115" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK47" s="116"/>
+      <c r="AM47" s="27"/>
+    </row>
+    <row r="48" spans="3:39" s="18" customFormat="1" ht="10.8" x14ac:dyDescent="0.2">
+      <c r="U48" s="25"/>
+      <c r="W48" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="X48" s="64"/>
+      <c r="Y48" s="64"/>
+      <c r="Z48" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA48" s="85"/>
+      <c r="AB48" s="64"/>
+      <c r="AC48" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD48" s="66"/>
+      <c r="AE48" s="66"/>
+      <c r="AF48" s="66"/>
+      <c r="AG48" s="66"/>
+      <c r="AH48" s="66"/>
+      <c r="AI48" s="67"/>
+      <c r="AJ48" s="107"/>
+      <c r="AK48" s="108"/>
+      <c r="AM48" s="27"/>
+    </row>
+    <row r="49" spans="10:54" s="18" customFormat="1" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U49" s="25"/>
+      <c r="W49" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="X49" s="69"/>
+      <c r="Y49" s="69"/>
+      <c r="Z49" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA49" s="87"/>
+      <c r="AB49" s="69"/>
+      <c r="AC49" s="70"/>
+      <c r="AD49" s="71"/>
+      <c r="AE49" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF49" s="71"/>
+      <c r="AG49" s="71"/>
+      <c r="AH49" s="71"/>
+      <c r="AI49" s="72"/>
+      <c r="AJ49" s="117"/>
+      <c r="AK49" s="118"/>
+      <c r="AM49" s="27"/>
+    </row>
+    <row r="50" spans="10:54" s="18" customFormat="1" ht="11.4" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="U50" s="25"/>
+      <c r="W50" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="X50" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM50" s="27"/>
+      <c r="AT50" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="BA50" s="92" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="10:54" s="18" customFormat="1" ht="10.8" x14ac:dyDescent="0.2">
+      <c r="U51" s="25"/>
+      <c r="AM51" s="27"/>
+      <c r="AU51" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="10:54" s="18" customFormat="1" ht="10.8" x14ac:dyDescent="0.2">
+      <c r="U52" s="25"/>
+      <c r="W52" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="X52" s="88"/>
+      <c r="Y52" s="43"/>
+      <c r="AM52" s="27"/>
+      <c r="AU52" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="10:54" s="18" customFormat="1" ht="10.8" x14ac:dyDescent="0.2">
+      <c r="U53" s="25"/>
+      <c r="AM53" s="27"/>
+      <c r="AU53" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="10:54" s="18" customFormat="1" ht="10.8" x14ac:dyDescent="0.2">
+      <c r="U54" s="25"/>
+      <c r="AM54" s="27"/>
+      <c r="AU54" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="10:54" s="18" customFormat="1" ht="10.8" x14ac:dyDescent="0.2">
+      <c r="U55" s="25"/>
+      <c r="V55" s="26"/>
+      <c r="W55" s="26"/>
+      <c r="X55" s="26"/>
+      <c r="Y55" s="26"/>
+      <c r="Z55" s="26"/>
+      <c r="AA55" s="26"/>
+      <c r="AB55" s="26"/>
+      <c r="AC55" s="26"/>
+      <c r="AD55" s="26"/>
+      <c r="AE55" s="26"/>
+      <c r="AF55" s="26"/>
+      <c r="AG55" s="26"/>
+      <c r="AH55" s="26"/>
+      <c r="AI55" s="26"/>
+      <c r="AJ55" s="26"/>
+      <c r="AK55" s="26"/>
+      <c r="AL55" s="26"/>
+      <c r="AM55" s="27"/>
+      <c r="AU55" s="92" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="10:54" s="18" customFormat="1" ht="10.8" x14ac:dyDescent="0.2">
+      <c r="U56" s="25"/>
+      <c r="V56" s="26"/>
+      <c r="W56" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="X56" s="26"/>
+      <c r="Y56" s="26"/>
+      <c r="Z56" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA56" s="88"/>
+      <c r="AB56" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC56" s="26"/>
+      <c r="AD56" s="26"/>
+      <c r="AE56" s="26"/>
+      <c r="AF56" s="26"/>
+      <c r="AG56" s="26"/>
+      <c r="AH56" s="26"/>
+      <c r="AI56" s="26"/>
+      <c r="AJ56" s="26"/>
+      <c r="AK56" s="26"/>
+      <c r="AL56" s="26"/>
+      <c r="AM56" s="27"/>
+    </row>
+    <row r="57" spans="10:54" s="18" customFormat="1" ht="10.8" x14ac:dyDescent="0.2">
+      <c r="U57" s="25"/>
+      <c r="V57" s="26"/>
+      <c r="W57" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="X57" s="43"/>
+      <c r="Y57" s="26"/>
+      <c r="Z57" s="26"/>
+      <c r="AA57" s="26"/>
+      <c r="AB57" s="26"/>
+      <c r="AC57" s="26"/>
+      <c r="AD57" s="26"/>
+      <c r="AE57" s="26"/>
+      <c r="AF57" s="26"/>
+      <c r="AG57" s="26"/>
+      <c r="AH57" s="26"/>
+      <c r="AI57" s="26"/>
+      <c r="AJ57" s="26"/>
+      <c r="AK57" s="26"/>
+      <c r="AL57" s="26"/>
+      <c r="AM57" s="27"/>
+    </row>
+    <row r="58" spans="10:54" s="18" customFormat="1" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U58" s="89"/>
+      <c r="V58" s="90"/>
+      <c r="W58" s="90"/>
+      <c r="X58" s="90"/>
+      <c r="Y58" s="90"/>
+      <c r="Z58" s="90"/>
+      <c r="AA58" s="90"/>
+      <c r="AB58" s="90"/>
+      <c r="AC58" s="90"/>
+      <c r="AD58" s="90"/>
+      <c r="AE58" s="90"/>
+      <c r="AF58" s="90"/>
+      <c r="AG58" s="90"/>
+      <c r="AH58" s="90"/>
+      <c r="AI58" s="90"/>
+      <c r="AJ58" s="90"/>
+      <c r="AK58" s="90"/>
+      <c r="AL58" s="90"/>
+      <c r="AM58" s="91"/>
+    </row>
+    <row r="61" spans="10:54" x14ac:dyDescent="0.2">
+      <c r="J61" s="134" t="s">
+        <v>267</v>
+      </c>
+      <c r="K61" s="135"/>
+      <c r="L61" s="131" t="s">
+        <v>268</v>
+      </c>
+      <c r="M61" s="132"/>
+      <c r="N61" s="132"/>
+      <c r="O61" s="132"/>
+      <c r="P61" s="132"/>
+      <c r="Q61" s="132"/>
+      <c r="R61" s="132"/>
+      <c r="S61" s="132"/>
+      <c r="T61" s="132"/>
+      <c r="U61" s="133"/>
+      <c r="V61" s="131" t="s">
+        <v>280</v>
+      </c>
+      <c r="W61" s="132"/>
+      <c r="X61" s="132"/>
+      <c r="Y61" s="132"/>
+      <c r="Z61" s="132"/>
+      <c r="AA61" s="132"/>
+      <c r="AB61" s="132"/>
+      <c r="AC61" s="132"/>
+      <c r="AD61" s="132"/>
+      <c r="AE61" s="133"/>
+      <c r="AF61" s="134" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG61" s="135"/>
+      <c r="AH61" s="135"/>
+      <c r="AI61" s="135"/>
+      <c r="AJ61" s="135"/>
+      <c r="AK61" s="135"/>
+      <c r="AL61" s="135"/>
+      <c r="AM61" s="135"/>
+      <c r="AN61" s="135"/>
+      <c r="AO61" s="135"/>
+      <c r="AP61" s="135"/>
+      <c r="AQ61" s="135"/>
+      <c r="AR61" s="135"/>
+      <c r="AS61" s="135"/>
+      <c r="AT61" s="135"/>
+      <c r="AU61" s="135"/>
+      <c r="AV61" s="135"/>
+      <c r="AW61" s="135"/>
+      <c r="AX61" s="135"/>
+      <c r="AY61" s="135"/>
+      <c r="AZ61" s="135"/>
+      <c r="BA61" s="135"/>
+      <c r="BB61" s="138"/>
+    </row>
+    <row r="62" spans="10:54" x14ac:dyDescent="0.2">
+      <c r="J62" s="136">
         <v>1</v>
       </c>
-      <c r="K24" s="120"/>
-      <c r="L24" s="121" t="s">
-        <v>268</v>
-      </c>
-      <c r="M24" s="122"/>
-      <c r="N24" s="122"/>
-      <c r="O24" s="122"/>
-      <c r="P24" s="122"/>
-      <c r="Q24" s="122"/>
-      <c r="R24" s="122"/>
-      <c r="S24" s="122"/>
-      <c r="T24" s="122"/>
-      <c r="U24" s="123"/>
-      <c r="V24" s="119"/>
-      <c r="W24" s="120"/>
-      <c r="X24" s="120"/>
-      <c r="Y24" s="120"/>
-      <c r="Z24" s="120"/>
-      <c r="AA24" s="120"/>
-      <c r="AB24" s="120"/>
-      <c r="AC24" s="120"/>
-      <c r="AD24" s="120"/>
-      <c r="AE24" s="120"/>
-      <c r="AF24" s="120"/>
-      <c r="AG24" s="120"/>
-      <c r="AH24" s="120"/>
-      <c r="AI24" s="120"/>
-      <c r="AJ24" s="120"/>
-      <c r="AK24" s="120"/>
-      <c r="AL24" s="120"/>
-      <c r="AM24" s="120"/>
-      <c r="AN24" s="120"/>
-      <c r="AO24" s="120"/>
-      <c r="AP24" s="120"/>
-      <c r="AQ24" s="120"/>
-      <c r="AR24" s="124"/>
-    </row>
-    <row r="25" spans="10:44" x14ac:dyDescent="0.2">
-      <c r="J25" s="119">
+      <c r="K62" s="137"/>
+      <c r="L62" s="131" t="s">
+        <v>279</v>
+      </c>
+      <c r="M62" s="132"/>
+      <c r="N62" s="132"/>
+      <c r="O62" s="132"/>
+      <c r="P62" s="132"/>
+      <c r="Q62" s="132"/>
+      <c r="R62" s="132"/>
+      <c r="S62" s="132"/>
+      <c r="T62" s="132"/>
+      <c r="U62" s="133"/>
+      <c r="V62" s="131" t="s">
+        <v>278</v>
+      </c>
+      <c r="W62" s="132"/>
+      <c r="X62" s="132"/>
+      <c r="Y62" s="132"/>
+      <c r="Z62" s="132"/>
+      <c r="AA62" s="132"/>
+      <c r="AB62" s="132"/>
+      <c r="AC62" s="132"/>
+      <c r="AD62" s="132"/>
+      <c r="AE62" s="133"/>
+      <c r="AF62" s="136">
+        <v>7</v>
+      </c>
+      <c r="AG62" s="137"/>
+      <c r="AH62" s="137"/>
+      <c r="AI62" s="137"/>
+      <c r="AJ62" s="137"/>
+      <c r="AK62" s="137"/>
+      <c r="AL62" s="137"/>
+      <c r="AM62" s="137"/>
+      <c r="AN62" s="137"/>
+      <c r="AO62" s="137"/>
+      <c r="AP62" s="137"/>
+      <c r="AQ62" s="137"/>
+      <c r="AR62" s="137"/>
+      <c r="AS62" s="137"/>
+      <c r="AT62" s="137"/>
+      <c r="AU62" s="137"/>
+      <c r="AV62" s="137"/>
+      <c r="AW62" s="137"/>
+      <c r="AX62" s="137"/>
+      <c r="AY62" s="137"/>
+      <c r="AZ62" s="137"/>
+      <c r="BA62" s="137"/>
+      <c r="BB62" s="139"/>
+    </row>
+    <row r="63" spans="10:54" x14ac:dyDescent="0.2">
+      <c r="J63" s="136">
         <v>2</v>
       </c>
-      <c r="K25" s="120"/>
-      <c r="L25" s="121" t="s">
-        <v>272</v>
-      </c>
-      <c r="M25" s="122"/>
-      <c r="N25" s="122"/>
-      <c r="O25" s="122"/>
-      <c r="P25" s="122"/>
-      <c r="Q25" s="122"/>
-      <c r="R25" s="122"/>
-      <c r="S25" s="122"/>
-      <c r="T25" s="122"/>
-      <c r="U25" s="123"/>
-      <c r="V25" s="119" t="s">
-        <v>273</v>
-      </c>
-      <c r="W25" s="120"/>
-      <c r="X25" s="120"/>
-      <c r="Y25" s="120"/>
-      <c r="Z25" s="120"/>
-      <c r="AA25" s="120"/>
-      <c r="AB25" s="120"/>
-      <c r="AC25" s="120"/>
-      <c r="AD25" s="120"/>
-      <c r="AE25" s="120"/>
-      <c r="AF25" s="120"/>
-      <c r="AG25" s="120"/>
-      <c r="AH25" s="120"/>
-      <c r="AI25" s="120"/>
-      <c r="AJ25" s="120"/>
-      <c r="AK25" s="120"/>
-      <c r="AL25" s="120"/>
-      <c r="AM25" s="120"/>
-      <c r="AN25" s="120"/>
-      <c r="AO25" s="120"/>
-      <c r="AP25" s="120"/>
-      <c r="AQ25" s="120"/>
-      <c r="AR25" s="124"/>
-    </row>
-    <row r="26" spans="10:44" x14ac:dyDescent="0.2">
-      <c r="J26" s="119"/>
-      <c r="K26" s="120"/>
-      <c r="L26" s="121"/>
-      <c r="M26" s="122"/>
-      <c r="N26" s="122"/>
-      <c r="O26" s="122"/>
-      <c r="P26" s="122"/>
-      <c r="Q26" s="122"/>
-      <c r="R26" s="122"/>
-      <c r="S26" s="122"/>
-      <c r="T26" s="122"/>
-      <c r="U26" s="123"/>
-      <c r="V26" s="119"/>
-      <c r="W26" s="120"/>
-      <c r="X26" s="120"/>
-      <c r="Y26" s="120"/>
-      <c r="Z26" s="120"/>
-      <c r="AA26" s="120"/>
-      <c r="AB26" s="120"/>
-      <c r="AC26" s="120"/>
-      <c r="AD26" s="120"/>
-      <c r="AE26" s="120"/>
-      <c r="AF26" s="120"/>
-      <c r="AG26" s="120"/>
-      <c r="AH26" s="120"/>
-      <c r="AI26" s="120"/>
-      <c r="AJ26" s="120"/>
-      <c r="AK26" s="120"/>
-      <c r="AL26" s="120"/>
-      <c r="AM26" s="120"/>
-      <c r="AN26" s="120"/>
-      <c r="AO26" s="120"/>
-      <c r="AP26" s="120"/>
-      <c r="AQ26" s="120"/>
-      <c r="AR26" s="124"/>
-    </row>
-    <row r="27" spans="10:44" x14ac:dyDescent="0.2">
-      <c r="J27" s="119"/>
-      <c r="K27" s="120"/>
-      <c r="L27" s="121"/>
-      <c r="M27" s="122"/>
-      <c r="N27" s="122"/>
-      <c r="O27" s="122"/>
-      <c r="P27" s="122"/>
-      <c r="Q27" s="122"/>
-      <c r="R27" s="122"/>
-      <c r="S27" s="122"/>
-      <c r="T27" s="122"/>
-      <c r="U27" s="123"/>
-      <c r="V27" s="119"/>
-      <c r="W27" s="120"/>
-      <c r="X27" s="120"/>
-      <c r="Y27" s="120"/>
-      <c r="Z27" s="120"/>
-      <c r="AA27" s="120"/>
-      <c r="AB27" s="120"/>
-      <c r="AC27" s="120"/>
-      <c r="AD27" s="120"/>
-      <c r="AE27" s="120"/>
-      <c r="AF27" s="120"/>
-      <c r="AG27" s="120"/>
-      <c r="AH27" s="120"/>
-      <c r="AI27" s="120"/>
-      <c r="AJ27" s="120"/>
-      <c r="AK27" s="120"/>
-      <c r="AL27" s="120"/>
-      <c r="AM27" s="120"/>
-      <c r="AN27" s="120"/>
-      <c r="AO27" s="120"/>
-      <c r="AP27" s="120"/>
-      <c r="AQ27" s="120"/>
-      <c r="AR27" s="124"/>
-    </row>
-    <row r="28" spans="10:44" x14ac:dyDescent="0.2">
-      <c r="J28" s="119"/>
-      <c r="K28" s="120"/>
-      <c r="L28" s="121"/>
-      <c r="M28" s="122"/>
-      <c r="N28" s="122"/>
-      <c r="O28" s="122"/>
-      <c r="P28" s="122"/>
-      <c r="Q28" s="122"/>
-      <c r="R28" s="122"/>
-      <c r="S28" s="122"/>
-      <c r="T28" s="122"/>
-      <c r="U28" s="123"/>
-      <c r="V28" s="119"/>
-      <c r="W28" s="120"/>
-      <c r="X28" s="120"/>
-      <c r="Y28" s="120"/>
-      <c r="Z28" s="120"/>
-      <c r="AA28" s="120"/>
-      <c r="AB28" s="120"/>
-      <c r="AC28" s="120"/>
-      <c r="AD28" s="120"/>
-      <c r="AE28" s="120"/>
-      <c r="AF28" s="120"/>
-      <c r="AG28" s="120"/>
-      <c r="AH28" s="120"/>
-      <c r="AI28" s="120"/>
-      <c r="AJ28" s="120"/>
-      <c r="AK28" s="120"/>
-      <c r="AL28" s="120"/>
-      <c r="AM28" s="120"/>
-      <c r="AN28" s="120"/>
-      <c r="AO28" s="120"/>
-      <c r="AP28" s="120"/>
-      <c r="AQ28" s="120"/>
-      <c r="AR28" s="124"/>
-    </row>
-    <row r="29" spans="10:44" x14ac:dyDescent="0.2">
-      <c r="J29" s="119"/>
-      <c r="K29" s="120"/>
-      <c r="L29" s="121"/>
-      <c r="M29" s="122"/>
-      <c r="N29" s="122"/>
-      <c r="O29" s="122"/>
-      <c r="P29" s="122"/>
-      <c r="Q29" s="122"/>
-      <c r="R29" s="122"/>
-      <c r="S29" s="122"/>
-      <c r="T29" s="122"/>
-      <c r="U29" s="123"/>
-      <c r="V29" s="119"/>
-      <c r="W29" s="120"/>
-      <c r="X29" s="120"/>
-      <c r="Y29" s="120"/>
-      <c r="Z29" s="120"/>
-      <c r="AA29" s="120"/>
-      <c r="AB29" s="120"/>
-      <c r="AC29" s="120"/>
-      <c r="AD29" s="120"/>
-      <c r="AE29" s="120"/>
-      <c r="AF29" s="120"/>
-      <c r="AG29" s="120"/>
-      <c r="AH29" s="120"/>
-      <c r="AI29" s="120"/>
-      <c r="AJ29" s="120"/>
-      <c r="AK29" s="120"/>
-      <c r="AL29" s="120"/>
-      <c r="AM29" s="120"/>
-      <c r="AN29" s="120"/>
-      <c r="AO29" s="120"/>
-      <c r="AP29" s="120"/>
-      <c r="AQ29" s="120"/>
-      <c r="AR29" s="124"/>
-    </row>
-    <row r="30" spans="10:44" x14ac:dyDescent="0.2">
-      <c r="J30" s="119"/>
-      <c r="K30" s="120"/>
-      <c r="L30" s="121"/>
-      <c r="M30" s="122"/>
-      <c r="N30" s="122"/>
-      <c r="O30" s="122"/>
-      <c r="P30" s="122"/>
-      <c r="Q30" s="122"/>
-      <c r="R30" s="122"/>
-      <c r="S30" s="122"/>
-      <c r="T30" s="122"/>
-      <c r="U30" s="123"/>
-      <c r="V30" s="119"/>
-      <c r="W30" s="120"/>
-      <c r="X30" s="120"/>
-      <c r="Y30" s="120"/>
-      <c r="Z30" s="120"/>
-      <c r="AA30" s="120"/>
-      <c r="AB30" s="120"/>
-      <c r="AC30" s="120"/>
-      <c r="AD30" s="120"/>
-      <c r="AE30" s="120"/>
-      <c r="AF30" s="120"/>
-      <c r="AG30" s="120"/>
-      <c r="AH30" s="120"/>
-      <c r="AI30" s="120"/>
-      <c r="AJ30" s="120"/>
-      <c r="AK30" s="120"/>
-      <c r="AL30" s="120"/>
-      <c r="AM30" s="120"/>
-      <c r="AN30" s="120"/>
-      <c r="AO30" s="120"/>
-      <c r="AP30" s="120"/>
-      <c r="AQ30" s="120"/>
-      <c r="AR30" s="124"/>
-    </row>
-    <row r="31" spans="10:44" x14ac:dyDescent="0.2">
-      <c r="J31" s="119"/>
-      <c r="K31" s="120"/>
-      <c r="L31" s="121"/>
-      <c r="M31" s="122"/>
-      <c r="N31" s="122"/>
-      <c r="O31" s="122"/>
-      <c r="P31" s="122"/>
-      <c r="Q31" s="122"/>
-      <c r="R31" s="122"/>
-      <c r="S31" s="122"/>
-      <c r="T31" s="122"/>
-      <c r="U31" s="123"/>
-      <c r="V31" s="119"/>
-      <c r="W31" s="120"/>
-      <c r="X31" s="120"/>
-      <c r="Y31" s="120"/>
-      <c r="Z31" s="120"/>
-      <c r="AA31" s="120"/>
-      <c r="AB31" s="120"/>
-      <c r="AC31" s="120"/>
-      <c r="AD31" s="120"/>
-      <c r="AE31" s="120"/>
-      <c r="AF31" s="120"/>
-      <c r="AG31" s="120"/>
-      <c r="AH31" s="120"/>
-      <c r="AI31" s="120"/>
-      <c r="AJ31" s="120"/>
-      <c r="AK31" s="120"/>
-      <c r="AL31" s="120"/>
-      <c r="AM31" s="120"/>
-      <c r="AN31" s="120"/>
-      <c r="AO31" s="120"/>
-      <c r="AP31" s="120"/>
-      <c r="AQ31" s="120"/>
-      <c r="AR31" s="124"/>
-    </row>
-    <row r="32" spans="10:44" x14ac:dyDescent="0.2">
-      <c r="J32" s="119"/>
-      <c r="K32" s="120"/>
-      <c r="L32" s="121"/>
-      <c r="M32" s="122"/>
-      <c r="N32" s="122"/>
-      <c r="O32" s="122"/>
-      <c r="P32" s="122"/>
-      <c r="Q32" s="122"/>
-      <c r="R32" s="122"/>
-      <c r="S32" s="122"/>
-      <c r="T32" s="122"/>
-      <c r="U32" s="123"/>
-      <c r="V32" s="119"/>
-      <c r="W32" s="120"/>
-      <c r="X32" s="120"/>
-      <c r="Y32" s="120"/>
-      <c r="Z32" s="120"/>
-      <c r="AA32" s="120"/>
-      <c r="AB32" s="120"/>
-      <c r="AC32" s="120"/>
-      <c r="AD32" s="120"/>
-      <c r="AE32" s="120"/>
-      <c r="AF32" s="120"/>
-      <c r="AG32" s="120"/>
-      <c r="AH32" s="120"/>
-      <c r="AI32" s="120"/>
-      <c r="AJ32" s="120"/>
-      <c r="AK32" s="120"/>
-      <c r="AL32" s="120"/>
-      <c r="AM32" s="120"/>
-      <c r="AN32" s="120"/>
-      <c r="AO32" s="120"/>
-      <c r="AP32" s="120"/>
-      <c r="AQ32" s="120"/>
-      <c r="AR32" s="124"/>
+      <c r="K63" s="137"/>
+      <c r="L63" s="131" t="s">
+        <v>269</v>
+      </c>
+      <c r="M63" s="132"/>
+      <c r="N63" s="132"/>
+      <c r="O63" s="132"/>
+      <c r="P63" s="132"/>
+      <c r="Q63" s="132"/>
+      <c r="R63" s="132"/>
+      <c r="S63" s="132"/>
+      <c r="T63" s="132"/>
+      <c r="U63" s="133"/>
+      <c r="V63" s="131"/>
+      <c r="W63" s="132"/>
+      <c r="X63" s="132"/>
+      <c r="Y63" s="132"/>
+      <c r="Z63" s="132"/>
+      <c r="AA63" s="132"/>
+      <c r="AB63" s="132"/>
+      <c r="AC63" s="132"/>
+      <c r="AD63" s="132"/>
+      <c r="AE63" s="133"/>
+      <c r="AF63" s="136" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG63" s="137"/>
+      <c r="AH63" s="137"/>
+      <c r="AI63" s="137"/>
+      <c r="AJ63" s="137"/>
+      <c r="AK63" s="137"/>
+      <c r="AL63" s="137"/>
+      <c r="AM63" s="137"/>
+      <c r="AN63" s="137"/>
+      <c r="AO63" s="137"/>
+      <c r="AP63" s="137"/>
+      <c r="AQ63" s="137"/>
+      <c r="AR63" s="137"/>
+      <c r="AS63" s="137"/>
+      <c r="AT63" s="137"/>
+      <c r="AU63" s="137"/>
+      <c r="AV63" s="137"/>
+      <c r="AW63" s="137"/>
+      <c r="AX63" s="137"/>
+      <c r="AY63" s="137"/>
+      <c r="AZ63" s="137"/>
+      <c r="BA63" s="137"/>
+      <c r="BB63" s="139"/>
+    </row>
+    <row r="64" spans="10:54" x14ac:dyDescent="0.2">
+      <c r="J64" s="136"/>
+      <c r="K64" s="137"/>
+      <c r="L64" s="131"/>
+      <c r="M64" s="132"/>
+      <c r="N64" s="132"/>
+      <c r="O64" s="132"/>
+      <c r="P64" s="132"/>
+      <c r="Q64" s="132"/>
+      <c r="R64" s="132"/>
+      <c r="S64" s="132"/>
+      <c r="T64" s="132"/>
+      <c r="U64" s="133"/>
+      <c r="V64" s="131"/>
+      <c r="W64" s="132"/>
+      <c r="X64" s="132"/>
+      <c r="Y64" s="132"/>
+      <c r="Z64" s="132"/>
+      <c r="AA64" s="132"/>
+      <c r="AB64" s="132"/>
+      <c r="AC64" s="132"/>
+      <c r="AD64" s="132"/>
+      <c r="AE64" s="133"/>
+      <c r="AF64" s="136"/>
+      <c r="AG64" s="137"/>
+      <c r="AH64" s="137"/>
+      <c r="AI64" s="137"/>
+      <c r="AJ64" s="137"/>
+      <c r="AK64" s="137"/>
+      <c r="AL64" s="137"/>
+      <c r="AM64" s="137"/>
+      <c r="AN64" s="137"/>
+      <c r="AO64" s="137"/>
+      <c r="AP64" s="137"/>
+      <c r="AQ64" s="137"/>
+      <c r="AR64" s="137"/>
+      <c r="AS64" s="137"/>
+      <c r="AT64" s="137"/>
+      <c r="AU64" s="137"/>
+      <c r="AV64" s="137"/>
+      <c r="AW64" s="137"/>
+      <c r="AX64" s="137"/>
+      <c r="AY64" s="137"/>
+      <c r="AZ64" s="137"/>
+      <c r="BA64" s="137"/>
+      <c r="BB64" s="139"/>
+    </row>
+    <row r="65" spans="10:54" x14ac:dyDescent="0.2">
+      <c r="J65" s="136"/>
+      <c r="K65" s="137"/>
+      <c r="L65" s="131"/>
+      <c r="M65" s="132"/>
+      <c r="N65" s="132"/>
+      <c r="O65" s="132"/>
+      <c r="P65" s="132"/>
+      <c r="Q65" s="132"/>
+      <c r="R65" s="132"/>
+      <c r="S65" s="132"/>
+      <c r="T65" s="132"/>
+      <c r="U65" s="133"/>
+      <c r="V65" s="131"/>
+      <c r="W65" s="132"/>
+      <c r="X65" s="132"/>
+      <c r="Y65" s="132"/>
+      <c r="Z65" s="132"/>
+      <c r="AA65" s="132"/>
+      <c r="AB65" s="132"/>
+      <c r="AC65" s="132"/>
+      <c r="AD65" s="132"/>
+      <c r="AE65" s="133"/>
+      <c r="AF65" s="136"/>
+      <c r="AG65" s="137"/>
+      <c r="AH65" s="137"/>
+      <c r="AI65" s="137"/>
+      <c r="AJ65" s="137"/>
+      <c r="AK65" s="137"/>
+      <c r="AL65" s="137"/>
+      <c r="AM65" s="137"/>
+      <c r="AN65" s="137"/>
+      <c r="AO65" s="137"/>
+      <c r="AP65" s="137"/>
+      <c r="AQ65" s="137"/>
+      <c r="AR65" s="137"/>
+      <c r="AS65" s="137"/>
+      <c r="AT65" s="137"/>
+      <c r="AU65" s="137"/>
+      <c r="AV65" s="137"/>
+      <c r="AW65" s="137"/>
+      <c r="AX65" s="137"/>
+      <c r="AY65" s="137"/>
+      <c r="AZ65" s="137"/>
+      <c r="BA65" s="137"/>
+      <c r="BB65" s="139"/>
+    </row>
+    <row r="66" spans="10:54" x14ac:dyDescent="0.2">
+      <c r="J66" s="136"/>
+      <c r="K66" s="137"/>
+      <c r="L66" s="131"/>
+      <c r="M66" s="132"/>
+      <c r="N66" s="132"/>
+      <c r="O66" s="132"/>
+      <c r="P66" s="132"/>
+      <c r="Q66" s="132"/>
+      <c r="R66" s="132"/>
+      <c r="S66" s="132"/>
+      <c r="T66" s="132"/>
+      <c r="U66" s="133"/>
+      <c r="V66" s="131"/>
+      <c r="W66" s="132"/>
+      <c r="X66" s="132"/>
+      <c r="Y66" s="132"/>
+      <c r="Z66" s="132"/>
+      <c r="AA66" s="132"/>
+      <c r="AB66" s="132"/>
+      <c r="AC66" s="132"/>
+      <c r="AD66" s="132"/>
+      <c r="AE66" s="133"/>
+      <c r="AF66" s="136"/>
+      <c r="AG66" s="137"/>
+      <c r="AH66" s="137"/>
+      <c r="AI66" s="137"/>
+      <c r="AJ66" s="137"/>
+      <c r="AK66" s="137"/>
+      <c r="AL66" s="137"/>
+      <c r="AM66" s="137"/>
+      <c r="AN66" s="137"/>
+      <c r="AO66" s="137"/>
+      <c r="AP66" s="137"/>
+      <c r="AQ66" s="137"/>
+      <c r="AR66" s="137"/>
+      <c r="AS66" s="137"/>
+      <c r="AT66" s="137"/>
+      <c r="AU66" s="137"/>
+      <c r="AV66" s="137"/>
+      <c r="AW66" s="137"/>
+      <c r="AX66" s="137"/>
+      <c r="AY66" s="137"/>
+      <c r="AZ66" s="137"/>
+      <c r="BA66" s="137"/>
+      <c r="BB66" s="139"/>
+    </row>
+    <row r="67" spans="10:54" x14ac:dyDescent="0.2">
+      <c r="J67" s="136"/>
+      <c r="K67" s="137"/>
+      <c r="L67" s="131"/>
+      <c r="M67" s="132"/>
+      <c r="N67" s="132"/>
+      <c r="O67" s="132"/>
+      <c r="P67" s="132"/>
+      <c r="Q67" s="132"/>
+      <c r="R67" s="132"/>
+      <c r="S67" s="132"/>
+      <c r="T67" s="132"/>
+      <c r="U67" s="133"/>
+      <c r="V67" s="131"/>
+      <c r="W67" s="132"/>
+      <c r="X67" s="132"/>
+      <c r="Y67" s="132"/>
+      <c r="Z67" s="132"/>
+      <c r="AA67" s="132"/>
+      <c r="AB67" s="132"/>
+      <c r="AC67" s="132"/>
+      <c r="AD67" s="132"/>
+      <c r="AE67" s="133"/>
+      <c r="AF67" s="136"/>
+      <c r="AG67" s="137"/>
+      <c r="AH67" s="137"/>
+      <c r="AI67" s="137"/>
+      <c r="AJ67" s="137"/>
+      <c r="AK67" s="137"/>
+      <c r="AL67" s="137"/>
+      <c r="AM67" s="137"/>
+      <c r="AN67" s="137"/>
+      <c r="AO67" s="137"/>
+      <c r="AP67" s="137"/>
+      <c r="AQ67" s="137"/>
+      <c r="AR67" s="137"/>
+      <c r="AS67" s="137"/>
+      <c r="AT67" s="137"/>
+      <c r="AU67" s="137"/>
+      <c r="AV67" s="137"/>
+      <c r="AW67" s="137"/>
+      <c r="AX67" s="137"/>
+      <c r="AY67" s="137"/>
+      <c r="AZ67" s="137"/>
+      <c r="BA67" s="137"/>
+      <c r="BB67" s="139"/>
+    </row>
+    <row r="68" spans="10:54" x14ac:dyDescent="0.2">
+      <c r="J68" s="136"/>
+      <c r="K68" s="137"/>
+      <c r="L68" s="131"/>
+      <c r="M68" s="132"/>
+      <c r="N68" s="132"/>
+      <c r="O68" s="132"/>
+      <c r="P68" s="132"/>
+      <c r="Q68" s="132"/>
+      <c r="R68" s="132"/>
+      <c r="S68" s="132"/>
+      <c r="T68" s="132"/>
+      <c r="U68" s="133"/>
+      <c r="V68" s="131"/>
+      <c r="W68" s="132"/>
+      <c r="X68" s="132"/>
+      <c r="Y68" s="132"/>
+      <c r="Z68" s="132"/>
+      <c r="AA68" s="132"/>
+      <c r="AB68" s="132"/>
+      <c r="AC68" s="132"/>
+      <c r="AD68" s="132"/>
+      <c r="AE68" s="133"/>
+      <c r="AF68" s="136"/>
+      <c r="AG68" s="137"/>
+      <c r="AH68" s="137"/>
+      <c r="AI68" s="137"/>
+      <c r="AJ68" s="137"/>
+      <c r="AK68" s="137"/>
+      <c r="AL68" s="137"/>
+      <c r="AM68" s="137"/>
+      <c r="AN68" s="137"/>
+      <c r="AO68" s="137"/>
+      <c r="AP68" s="137"/>
+      <c r="AQ68" s="137"/>
+      <c r="AR68" s="137"/>
+      <c r="AS68" s="137"/>
+      <c r="AT68" s="137"/>
+      <c r="AU68" s="137"/>
+      <c r="AV68" s="137"/>
+      <c r="AW68" s="137"/>
+      <c r="AX68" s="137"/>
+      <c r="AY68" s="137"/>
+      <c r="AZ68" s="137"/>
+      <c r="BA68" s="137"/>
+      <c r="BB68" s="139"/>
+    </row>
+    <row r="69" spans="10:54" x14ac:dyDescent="0.2">
+      <c r="J69" s="136"/>
+      <c r="K69" s="137"/>
+      <c r="L69" s="131"/>
+      <c r="M69" s="132"/>
+      <c r="N69" s="132"/>
+      <c r="O69" s="132"/>
+      <c r="P69" s="132"/>
+      <c r="Q69" s="132"/>
+      <c r="R69" s="132"/>
+      <c r="S69" s="132"/>
+      <c r="T69" s="132"/>
+      <c r="U69" s="133"/>
+      <c r="V69" s="131"/>
+      <c r="W69" s="132"/>
+      <c r="X69" s="132"/>
+      <c r="Y69" s="132"/>
+      <c r="Z69" s="132"/>
+      <c r="AA69" s="132"/>
+      <c r="AB69" s="132"/>
+      <c r="AC69" s="132"/>
+      <c r="AD69" s="132"/>
+      <c r="AE69" s="133"/>
+      <c r="AF69" s="136"/>
+      <c r="AG69" s="137"/>
+      <c r="AH69" s="137"/>
+      <c r="AI69" s="137"/>
+      <c r="AJ69" s="137"/>
+      <c r="AK69" s="137"/>
+      <c r="AL69" s="137"/>
+      <c r="AM69" s="137"/>
+      <c r="AN69" s="137"/>
+      <c r="AO69" s="137"/>
+      <c r="AP69" s="137"/>
+      <c r="AQ69" s="137"/>
+      <c r="AR69" s="137"/>
+      <c r="AS69" s="137"/>
+      <c r="AT69" s="137"/>
+      <c r="AU69" s="137"/>
+      <c r="AV69" s="137"/>
+      <c r="AW69" s="137"/>
+      <c r="AX69" s="137"/>
+      <c r="AY69" s="137"/>
+      <c r="AZ69" s="137"/>
+      <c r="BA69" s="137"/>
+      <c r="BB69" s="139"/>
+    </row>
+    <row r="70" spans="10:54" x14ac:dyDescent="0.2">
+      <c r="J70" s="136"/>
+      <c r="K70" s="137"/>
+      <c r="L70" s="131"/>
+      <c r="M70" s="132"/>
+      <c r="N70" s="132"/>
+      <c r="O70" s="132"/>
+      <c r="P70" s="132"/>
+      <c r="Q70" s="132"/>
+      <c r="R70" s="132"/>
+      <c r="S70" s="132"/>
+      <c r="T70" s="132"/>
+      <c r="U70" s="133"/>
+      <c r="V70" s="131"/>
+      <c r="W70" s="132"/>
+      <c r="X70" s="132"/>
+      <c r="Y70" s="132"/>
+      <c r="Z70" s="132"/>
+      <c r="AA70" s="132"/>
+      <c r="AB70" s="132"/>
+      <c r="AC70" s="132"/>
+      <c r="AD70" s="132"/>
+      <c r="AE70" s="133"/>
+      <c r="AF70" s="136"/>
+      <c r="AG70" s="137"/>
+      <c r="AH70" s="137"/>
+      <c r="AI70" s="137"/>
+      <c r="AJ70" s="137"/>
+      <c r="AK70" s="137"/>
+      <c r="AL70" s="137"/>
+      <c r="AM70" s="137"/>
+      <c r="AN70" s="137"/>
+      <c r="AO70" s="137"/>
+      <c r="AP70" s="137"/>
+      <c r="AQ70" s="137"/>
+      <c r="AR70" s="137"/>
+      <c r="AS70" s="137"/>
+      <c r="AT70" s="137"/>
+      <c r="AU70" s="137"/>
+      <c r="AV70" s="137"/>
+      <c r="AW70" s="137"/>
+      <c r="AX70" s="137"/>
+      <c r="AY70" s="137"/>
+      <c r="AZ70" s="137"/>
+      <c r="BA70" s="137"/>
+      <c r="BB70" s="139"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="79">
+    <mergeCell ref="AF68:BB68"/>
+    <mergeCell ref="AF69:BB69"/>
+    <mergeCell ref="AF70:BB70"/>
+    <mergeCell ref="V61:AE61"/>
+    <mergeCell ref="V62:AE62"/>
+    <mergeCell ref="V63:AE63"/>
+    <mergeCell ref="V70:AE70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:U70"/>
+    <mergeCell ref="AF61:BB61"/>
+    <mergeCell ref="AF62:BB62"/>
+    <mergeCell ref="AF63:BB63"/>
+    <mergeCell ref="AF64:BB64"/>
+    <mergeCell ref="AF65:BB65"/>
+    <mergeCell ref="AF66:BB66"/>
+    <mergeCell ref="AF67:BB67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:U68"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:U69"/>
+    <mergeCell ref="V68:AE68"/>
+    <mergeCell ref="V69:AE69"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:U66"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="L67:U67"/>
+    <mergeCell ref="V66:AE66"/>
+    <mergeCell ref="V67:AE67"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:U64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:U65"/>
+    <mergeCell ref="V64:AE64"/>
+    <mergeCell ref="V65:AE65"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:U63"/>
+    <mergeCell ref="AJ44:AK46"/>
+    <mergeCell ref="W46:Y46"/>
+    <mergeCell ref="W47:Y47"/>
+    <mergeCell ref="AJ47:AK49"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:U61"/>
     <mergeCell ref="O5:T6"/>
     <mergeCell ref="U5:Z6"/>
     <mergeCell ref="AA5:AF6"/>
     <mergeCell ref="AG5:AL6"/>
     <mergeCell ref="O7:AB8"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:U62"/>
     <mergeCell ref="L24:U24"/>
     <mergeCell ref="L23:U23"/>
     <mergeCell ref="J23:K23"/>
